--- a/180216_最新版.xlsx
+++ b/180216_最新版.xlsx
@@ -5,15 +5,18 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ikeda\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="5580" yWindow="0" windowWidth="27876" windowHeight="12072"/>
+    <workbookView xWindow="9300" yWindow="0" windowWidth="27870" windowHeight="12075"/>
   </bookViews>
   <sheets>
     <sheet name="チェックリスト" sheetId="2" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">チェックリスト!$B$2:$I$101</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -24,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="112">
   <si>
     <t>内容</t>
     <rPh sb="0" eb="2">
@@ -1098,6 +1101,64 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
+    <t>オブジェクト(鉄骨)</t>
+    <rPh sb="7" eb="9">
+      <t>テッコツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鉄骨を投げるとアンドロイドが食い込み、以降の「持て」が行えなくなる</t>
+    <rPh sb="0" eb="2">
+      <t>テッコツ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ク</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>コ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>オコナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オブジェクト(ミニ木箱)</t>
+    <rPh sb="9" eb="11">
+      <t>キバコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>持つことができない　以降の命令を受け付けなくなる</t>
+    <rPh sb="0" eb="1">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イコウ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>メイレイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>石</t>
   </si>
   <si>
@@ -1105,6 +1166,88 @@
   </si>
   <si>
     <t>矢嶋</t>
+  </si>
+  <si>
+    <t>ベンチバグ関連の可能性が高い</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>再現性がとても低い　通れるかの判定の下りでオブジェクトを持って通り向けることで発生する可能性がある</t>
+    <rPh sb="0" eb="3">
+      <t>サイゲンセイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ハンテイ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>クダ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>モ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>ム</t>
+    </rPh>
+    <rPh sb="39" eb="41">
+      <t>ハッセイ</t>
+    </rPh>
+    <rPh sb="43" eb="46">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Aかな？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃処理を直せば直るかもしれない</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ナオ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ベンチを削除</t>
+    <rPh sb="4" eb="6">
+      <t>サクジョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力関連の可能性あり</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンレン</t>
+    </rPh>
+    <rPh sb="5" eb="8">
+      <t>カノウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1315,7 +1458,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1403,11 +1546,14 @@
     <xf numFmtId="56" fontId="0" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1409">
+  <dxfs count="1421">
     <dxf>
       <font>
         <color theme="0"/>
@@ -4167,6 +4313,90 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="4" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -11933,25 +12163,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:I101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="3.59765625" customWidth="1"/>
-    <col min="2" max="2" width="3.59765625" style="12" customWidth="1"/>
-    <col min="3" max="3" width="20.59765625" customWidth="1"/>
-    <col min="4" max="4" width="80.59765625" customWidth="1"/>
-    <col min="5" max="5" width="50.59765625" customWidth="1"/>
-    <col min="6" max="6" width="6.59765625" customWidth="1"/>
-    <col min="7" max="9" width="10.59765625" customWidth="1"/>
-    <col min="10" max="10" width="3.59765625" customWidth="1"/>
+    <col min="1" max="1" width="3.625" customWidth="1"/>
+    <col min="2" max="2" width="3.625" style="12" customWidth="1"/>
+    <col min="3" max="3" width="20.625" customWidth="1"/>
+    <col min="4" max="4" width="80.625" customWidth="1"/>
+    <col min="5" max="5" width="50.625" customWidth="1"/>
+    <col min="6" max="6" width="6.625" customWidth="1"/>
+    <col min="7" max="9" width="10.625" customWidth="1"/>
+    <col min="10" max="10" width="3.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5"/>
-    <row r="2" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="1" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
@@ -11977,7 +12207,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:9" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:9" ht="19.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="B3" s="15">
         <v>1</v>
       </c>
@@ -11992,7 +12222,7 @@
         <v>6</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H3" s="18">
         <v>100</v>
@@ -12001,7 +12231,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B4" s="17">
         <v>2</v>
       </c>
@@ -12021,7 +12251,7 @@
       </c>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -12035,13 +12265,15 @@
       <c r="F5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H5" s="18">
         <v>0</v>
       </c>
       <c r="I5" s="20"/>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B6" s="17">
         <v>4</v>
       </c>
@@ -12056,14 +12288,16 @@
         <v>6</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H6" s="18">
         <v>100</v>
       </c>
-      <c r="I6" s="22"/>
+      <c r="I6" s="29">
+        <v>43144</v>
+      </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B7" s="15">
         <v>5</v>
       </c>
@@ -12077,13 +12311,15 @@
       <c r="F7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="6"/>
+      <c r="G7" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H7" s="18">
         <v>0</v>
       </c>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B8" s="17">
         <v>6</v>
       </c>
@@ -12098,14 +12334,16 @@
         <v>6</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H8" s="18">
         <v>100</v>
       </c>
-      <c r="I8" s="22"/>
+      <c r="I8" s="29">
+        <v>43144</v>
+      </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B9" s="15">
         <v>7</v>
       </c>
@@ -12119,13 +12357,15 @@
       <c r="F9" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="6"/>
+      <c r="G9" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H9" s="18">
         <v>0</v>
       </c>
       <c r="I9" s="20"/>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B10" s="17">
         <v>8</v>
       </c>
@@ -12139,13 +12379,15 @@
       <c r="F10" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="7"/>
+      <c r="G10" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H10" s="18">
         <v>0</v>
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B11" s="15">
         <v>9</v>
       </c>
@@ -12160,7 +12402,7 @@
         <v>8</v>
       </c>
       <c r="G11" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H11" s="18">
         <v>100</v>
@@ -12169,7 +12411,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B12" s="17">
         <v>10</v>
       </c>
@@ -12183,13 +12425,15 @@
       <c r="F12" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G12" s="7"/>
+      <c r="G12" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H12" s="18">
         <v>0</v>
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B13" s="15">
         <v>11</v>
       </c>
@@ -12203,13 +12447,15 @@
       <c r="F13" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G13" s="6"/>
+      <c r="G13" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H13" s="18">
         <v>0</v>
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B14" s="17">
         <v>12</v>
       </c>
@@ -12223,13 +12469,15 @@
       <c r="F14" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G14" s="7"/>
+      <c r="G14" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H14" s="18">
         <v>0</v>
       </c>
       <c r="I14" s="22"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B15" s="15">
         <v>13</v>
       </c>
@@ -12244,14 +12492,14 @@
         <v>6</v>
       </c>
       <c r="G15" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H15" s="18">
         <v>0</v>
       </c>
       <c r="I15" s="20"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B16" s="17">
         <v>14</v>
       </c>
@@ -12266,14 +12514,16 @@
         <v>6</v>
       </c>
       <c r="G16" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H16" s="18">
         <v>100</v>
       </c>
-      <c r="H16" s="18">
-        <v>0</v>
-      </c>
-      <c r="I16" s="22"/>
+      <c r="I16" s="29">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B17" s="15">
         <v>15</v>
       </c>
@@ -12288,16 +12538,16 @@
         <v>6</v>
       </c>
       <c r="G17" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H17" s="18">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="I17" s="28">
         <v>43147</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B18" s="17">
         <v>16</v>
       </c>
@@ -12311,15 +12561,17 @@
       <c r="F18" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="H18" s="18">
         <v>100</v>
       </c>
-      <c r="H18" s="18">
-        <v>0</v>
-      </c>
-      <c r="I18" s="22"/>
+      <c r="I18" s="29">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B19" s="15">
         <v>17</v>
       </c>
@@ -12334,14 +12586,14 @@
         <v>6</v>
       </c>
       <c r="G19" s="6" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H19" s="18">
         <v>0</v>
       </c>
       <c r="I19" s="20"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B20" s="17">
         <v>18</v>
       </c>
@@ -12355,15 +12607,15 @@
       <c r="F20" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G20" s="6" t="s">
-        <v>100</v>
+      <c r="G20" s="7" t="s">
+        <v>104</v>
       </c>
       <c r="H20" s="18">
         <v>0</v>
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B21" s="15">
         <v>19</v>
       </c>
@@ -12377,13 +12629,15 @@
       <c r="F21" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G21" s="6"/>
+      <c r="G21" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H21" s="18">
         <v>0</v>
       </c>
       <c r="I21" s="20"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B22" s="17">
         <v>20</v>
       </c>
@@ -12398,14 +12652,16 @@
         <v>6</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H22" s="18">
-        <v>0</v>
-      </c>
-      <c r="I22" s="22"/>
+        <v>50</v>
+      </c>
+      <c r="I22" s="29">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B23" s="15">
         <v>21</v>
       </c>
@@ -12419,13 +12675,15 @@
       <c r="F23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G23" s="6"/>
+      <c r="G23" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H23" s="18">
         <v>0</v>
       </c>
       <c r="I23" s="20"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B24" s="17">
         <v>22</v>
       </c>
@@ -12440,14 +12698,14 @@
         <v>6</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H24" s="18">
         <v>0</v>
       </c>
       <c r="I24" s="22"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B25" s="15">
         <v>23</v>
       </c>
@@ -12461,13 +12719,15 @@
       <c r="F25" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G25" s="6"/>
+      <c r="G25" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H25" s="18">
         <v>0</v>
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B26" s="17">
         <v>24</v>
       </c>
@@ -12481,13 +12741,15 @@
       <c r="F26" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G26" s="7"/>
+      <c r="G26" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H26" s="18">
         <v>0</v>
       </c>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B27" s="15">
         <v>25</v>
       </c>
@@ -12497,17 +12759,23 @@
       <c r="D27" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="E27" s="8"/>
+      <c r="E27" s="8" t="s">
+        <v>110</v>
+      </c>
       <c r="F27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G27" s="6"/>
+      <c r="G27" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H27" s="18">
-        <v>0</v>
-      </c>
-      <c r="I27" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I27" s="28">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B28" s="17">
         <v>26</v>
       </c>
@@ -12521,13 +12789,15 @@
       <c r="F28" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G28" s="7"/>
+      <c r="G28" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H28" s="18">
         <v>0</v>
       </c>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B29" s="15">
         <v>27</v>
       </c>
@@ -12541,13 +12811,15 @@
       <c r="F29" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G29" s="6"/>
+      <c r="G29" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H29" s="18">
         <v>0</v>
       </c>
       <c r="I29" s="20"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B30" s="17">
         <v>28</v>
       </c>
@@ -12561,13 +12833,15 @@
       <c r="F30" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G30" s="7"/>
+      <c r="G30" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H30" s="18">
         <v>0</v>
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B31" s="15">
         <v>29</v>
       </c>
@@ -12581,13 +12855,15 @@
       <c r="F31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="6"/>
+      <c r="G31" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H31" s="18">
         <v>0</v>
       </c>
       <c r="I31" s="20"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B32" s="17">
         <v>30</v>
       </c>
@@ -12601,13 +12877,15 @@
       <c r="F32" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G32" s="7"/>
+      <c r="G32" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H32" s="18">
         <v>0</v>
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B33" s="15">
         <v>31</v>
       </c>
@@ -12617,19 +12895,23 @@
       <c r="D33" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>105</v>
+      </c>
       <c r="F33" s="4" t="s">
         <v>5</v>
       </c>
       <c r="G33" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="H33" s="18">
         <v>100</v>
       </c>
-      <c r="H33" s="18">
-        <v>0</v>
-      </c>
-      <c r="I33" s="20"/>
+      <c r="I33" s="28">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B34" s="17">
         <v>32</v>
       </c>
@@ -12644,14 +12926,14 @@
         <v>6</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="H34" s="18">
         <v>0</v>
       </c>
       <c r="I34" s="22"/>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B35" s="15">
         <v>33</v>
       </c>
@@ -12667,7 +12949,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B36" s="17">
         <v>34</v>
       </c>
@@ -12687,7 +12969,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B37" s="15">
         <v>35</v>
       </c>
@@ -12702,7 +12984,7 @@
         <v>5</v>
       </c>
       <c r="G37" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H37" s="18">
         <v>100</v>
@@ -12711,7 +12993,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B38" s="17">
         <v>36</v>
       </c>
@@ -12725,13 +13007,17 @@
       <c r="F38" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G38" s="7"/>
+      <c r="G38" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H38" s="18">
-        <v>0</v>
-      </c>
-      <c r="I38" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I38" s="29">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B39" s="15">
         <v>37</v>
       </c>
@@ -12745,13 +13031,17 @@
       <c r="F39" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G39" s="6"/>
+      <c r="G39" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="H39" s="18">
-        <v>0</v>
-      </c>
-      <c r="I39" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I39" s="28">
+        <v>43144</v>
+      </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B40" s="17">
         <v>38</v>
       </c>
@@ -12765,13 +13055,15 @@
       <c r="F40" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G40" s="7"/>
+      <c r="G40" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H40" s="18">
         <v>0</v>
       </c>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B41" s="15">
         <v>39</v>
       </c>
@@ -12786,14 +13078,16 @@
         <v>5</v>
       </c>
       <c r="G41" s="6" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H41" s="18">
         <v>100</v>
       </c>
-      <c r="I41" s="20"/>
+      <c r="I41" s="28">
+        <v>43144</v>
+      </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B42" s="17">
         <v>40</v>
       </c>
@@ -12808,14 +13102,16 @@
         <v>5</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H42" s="18">
         <v>100</v>
       </c>
-      <c r="I42" s="22"/>
+      <c r="I42" s="29">
+        <v>43144</v>
+      </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B43" s="15">
         <v>41</v>
       </c>
@@ -12830,7 +13126,7 @@
         <v>5</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="H43" s="18">
         <v>100</v>
@@ -12839,7 +13135,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B44" s="17">
         <v>42</v>
       </c>
@@ -12853,13 +13149,15 @@
       <c r="F44" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G44" s="7"/>
+      <c r="G44" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H44" s="18">
         <v>0</v>
       </c>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B45" s="15">
         <v>43</v>
       </c>
@@ -12869,7 +13167,9 @@
       <c r="D45" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="E45" s="8"/>
+      <c r="E45" s="8" t="s">
+        <v>106</v>
+      </c>
       <c r="F45" s="4" t="s">
         <v>5</v>
       </c>
@@ -12879,7 +13179,7 @@
       </c>
       <c r="I45" s="20"/>
     </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B46" s="17">
         <v>44</v>
       </c>
@@ -12893,13 +13193,15 @@
       <c r="F46" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G46" s="7"/>
+      <c r="G46" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H46" s="18">
         <v>0</v>
       </c>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B47" s="15">
         <v>45</v>
       </c>
@@ -12909,17 +13211,21 @@
       <c r="D47" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="E47" s="8"/>
+      <c r="E47" s="8" t="s">
+        <v>109</v>
+      </c>
       <c r="F47" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G47" s="6"/>
+      <c r="G47" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H47" s="18">
         <v>0</v>
       </c>
       <c r="I47" s="20"/>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B48" s="17">
         <v>46</v>
       </c>
@@ -12933,13 +13239,15 @@
       <c r="F48" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="G48" s="7"/>
+      <c r="G48" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H48" s="18">
         <v>0</v>
       </c>
       <c r="I48" s="22"/>
     </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B49" s="15">
         <v>47</v>
       </c>
@@ -12953,13 +13261,15 @@
       <c r="F49" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G49" s="6"/>
+      <c r="G49" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H49" s="18">
         <v>0</v>
       </c>
       <c r="I49" s="20"/>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B50" s="17">
         <v>48</v>
       </c>
@@ -12981,7 +13291,7 @@
       </c>
       <c r="I50" s="22"/>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B51" s="15">
         <v>49</v>
       </c>
@@ -12995,13 +13305,15 @@
       <c r="F51" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="6"/>
+      <c r="G51" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H51" s="18">
         <v>0</v>
       </c>
       <c r="I51" s="20"/>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B52" s="17">
         <v>50</v>
       </c>
@@ -13021,7 +13333,7 @@
       </c>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B53" s="15">
         <v>51</v>
       </c>
@@ -13035,13 +13347,17 @@
       <c r="F53" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G53" s="6"/>
+      <c r="G53" s="6" t="s">
+        <v>103</v>
+      </c>
       <c r="H53" s="18">
-        <v>0</v>
-      </c>
-      <c r="I53" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I53" s="28">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B54" s="17">
         <v>52</v>
       </c>
@@ -13056,14 +13372,16 @@
         <v>6</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="H54" s="18">
         <v>100</v>
       </c>
-      <c r="I54" s="22"/>
+      <c r="I54" s="29">
+        <v>43144</v>
+      </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="55" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B55" s="15">
         <v>53</v>
       </c>
@@ -13077,13 +13395,15 @@
       <c r="F55" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G55" s="6"/>
+      <c r="G55" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H55" s="18">
         <v>0</v>
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B56" s="17">
         <v>54</v>
       </c>
@@ -13097,13 +13417,15 @@
       <c r="F56" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="G56" s="7"/>
+      <c r="G56" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H56" s="18">
         <v>0</v>
       </c>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B57" s="15">
         <v>55</v>
       </c>
@@ -13117,13 +13439,15 @@
       <c r="F57" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="G57" s="6"/>
+      <c r="G57" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H57" s="18">
         <v>0</v>
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B58" s="17">
         <v>56</v>
       </c>
@@ -13143,7 +13467,7 @@
       </c>
       <c r="I58" s="22"/>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="59" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B59" s="15">
         <v>57</v>
       </c>
@@ -13157,13 +13481,15 @@
       <c r="F59" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G59" s="6"/>
+      <c r="G59" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H59" s="18">
         <v>0</v>
       </c>
       <c r="I59" s="20"/>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B60" s="17">
         <v>58</v>
       </c>
@@ -13177,13 +13503,15 @@
       <c r="F60" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G60" s="7"/>
+      <c r="G60" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H60" s="18">
         <v>0</v>
       </c>
       <c r="I60" s="22"/>
     </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B61" s="15">
         <v>59</v>
       </c>
@@ -13197,13 +13525,15 @@
       <c r="F61" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G61" s="6"/>
+      <c r="G61" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H61" s="18">
         <v>0</v>
       </c>
       <c r="I61" s="20"/>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="62" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B62" s="17">
         <v>60</v>
       </c>
@@ -13217,13 +13547,15 @@
       <c r="F62" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G62" s="7"/>
+      <c r="G62" s="7" t="s">
+        <v>102</v>
+      </c>
       <c r="H62" s="18">
         <v>0</v>
       </c>
       <c r="I62" s="22"/>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="63" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B63" s="15">
         <v>61</v>
       </c>
@@ -13237,13 +13569,17 @@
       <c r="F63" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G63" s="6"/>
+      <c r="G63" s="6" t="s">
+        <v>102</v>
+      </c>
       <c r="H63" s="18">
-        <v>0</v>
-      </c>
-      <c r="I63" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I63" s="28">
+        <v>43144</v>
+      </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B64" s="17">
         <v>62</v>
       </c>
@@ -13263,7 +13599,7 @@
       </c>
       <c r="I64" s="22"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="65" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B65" s="15">
         <v>63</v>
       </c>
@@ -13273,9 +13609,11 @@
       <c r="D65" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="E65" s="8"/>
+      <c r="E65" s="8" t="s">
+        <v>108</v>
+      </c>
       <c r="F65" s="4" t="s">
-        <v>6</v>
+        <v>107</v>
       </c>
       <c r="G65" s="6"/>
       <c r="H65" s="18">
@@ -13283,7 +13621,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B66" s="17">
         <v>64</v>
       </c>
@@ -13299,39 +13637,53 @@
       </c>
       <c r="I66" s="22"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B67" s="15">
         <v>65</v>
       </c>
-      <c r="C67" s="13"/>
-      <c r="D67" s="9"/>
-      <c r="E67" s="8"/>
+      <c r="C67" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>99</v>
+      </c>
+      <c r="E67" s="8" t="s">
+        <v>111</v>
+      </c>
       <c r="F67" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G67" s="6"/>
+        <v>5</v>
+      </c>
+      <c r="G67" s="6" t="s">
+        <v>104</v>
+      </c>
       <c r="H67" s="18">
         <v>0</v>
       </c>
       <c r="I67" s="20"/>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B68" s="17">
         <v>66</v>
       </c>
-      <c r="C68" s="14"/>
-      <c r="D68" s="11"/>
+      <c r="C68" s="14" t="s">
+        <v>100</v>
+      </c>
+      <c r="D68" s="11" t="s">
+        <v>101</v>
+      </c>
       <c r="E68" s="10"/>
       <c r="F68" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="G68" s="7"/>
+        <v>5</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>104</v>
+      </c>
       <c r="H68" s="18">
         <v>0</v>
       </c>
       <c r="I68" s="22"/>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B69" s="15">
         <v>67</v>
       </c>
@@ -13347,7 +13699,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B70" s="17">
         <v>68</v>
       </c>
@@ -13363,7 +13715,7 @@
       </c>
       <c r="I70" s="22"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B71" s="15">
         <v>69</v>
       </c>
@@ -13379,7 +13731,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B72" s="17">
         <v>70</v>
       </c>
@@ -13395,7 +13747,7 @@
       </c>
       <c r="I72" s="22"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B73" s="15">
         <v>71</v>
       </c>
@@ -13411,7 +13763,7 @@
       </c>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B74" s="17">
         <v>72</v>
       </c>
@@ -13427,7 +13779,7 @@
       </c>
       <c r="I74" s="22"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B75" s="15">
         <v>73</v>
       </c>
@@ -13443,7 +13795,7 @@
       </c>
       <c r="I75" s="20"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B76" s="17">
         <v>74</v>
       </c>
@@ -13459,7 +13811,7 @@
       </c>
       <c r="I76" s="22"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B77" s="15">
         <v>75</v>
       </c>
@@ -13475,7 +13827,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B78" s="17">
         <v>76</v>
       </c>
@@ -13491,7 +13843,7 @@
       </c>
       <c r="I78" s="22"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B79" s="15">
         <v>77</v>
       </c>
@@ -13507,7 +13859,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B80" s="17">
         <v>78</v>
       </c>
@@ -13523,7 +13875,7 @@
       </c>
       <c r="I80" s="22"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B81" s="15">
         <v>79</v>
       </c>
@@ -13539,7 +13891,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B82" s="17">
         <v>80</v>
       </c>
@@ -13555,7 +13907,7 @@
       </c>
       <c r="I82" s="22"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B83" s="15">
         <v>81</v>
       </c>
@@ -13571,7 +13923,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B84" s="17">
         <v>82</v>
       </c>
@@ -13587,7 +13939,7 @@
       </c>
       <c r="I84" s="22"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B85" s="15">
         <v>83</v>
       </c>
@@ -13603,7 +13955,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B86" s="17">
         <v>84</v>
       </c>
@@ -13619,7 +13971,7 @@
       </c>
       <c r="I86" s="22"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B87" s="15">
         <v>85</v>
       </c>
@@ -13635,7 +13987,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B88" s="17">
         <v>86</v>
       </c>
@@ -13651,7 +14003,7 @@
       </c>
       <c r="I88" s="22"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B89" s="15">
         <v>87</v>
       </c>
@@ -13667,7 +14019,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B90" s="17">
         <v>88</v>
       </c>
@@ -13683,7 +14035,7 @@
       </c>
       <c r="I90" s="22"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B91" s="15">
         <v>89</v>
       </c>
@@ -13699,7 +14051,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="92" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B92" s="17">
         <v>90</v>
       </c>
@@ -13715,7 +14067,7 @@
       </c>
       <c r="I92" s="22"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B93" s="15">
         <v>91</v>
       </c>
@@ -13731,7 +14083,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B94" s="17">
         <v>92</v>
       </c>
@@ -13747,7 +14099,7 @@
       </c>
       <c r="I94" s="22"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B95" s="15">
         <v>93</v>
       </c>
@@ -13763,7 +14115,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B96" s="17">
         <v>94</v>
       </c>
@@ -13779,7 +14131,7 @@
       </c>
       <c r="I96" s="22"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B97" s="15">
         <v>95</v>
       </c>
@@ -13795,7 +14147,7 @@
       </c>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B98" s="17">
         <v>96</v>
       </c>
@@ -13811,7 +14163,7 @@
       </c>
       <c r="I98" s="22"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B99" s="17">
         <v>97</v>
       </c>
@@ -13827,7 +14179,7 @@
       </c>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.45">
+    <row r="100" spans="2:9" x14ac:dyDescent="0.4">
       <c r="B100" s="17">
         <v>98</v>
       </c>
@@ -13843,7 +14195,7 @@
       </c>
       <c r="I100" s="22"/>
     </row>
-    <row r="101" spans="2:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="101" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B101" s="16">
         <v>99</v>
       </c>
@@ -13860,2525 +14212,2568 @@
       <c r="I101" s="21"/>
     </row>
   </sheetData>
+  <autoFilter ref="B2:I101"/>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F57">
-    <cfRule type="containsText" dxfId="1408" priority="1439" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1420" priority="1439" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1407" priority="1440" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1419" priority="1440" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1406" priority="1441" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1418" priority="1441" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F57)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1405" priority="1442" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1417" priority="1442" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F57)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F56">
-    <cfRule type="containsText" dxfId="1404" priority="1431" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1416" priority="1431" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1403" priority="1432" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1415" priority="1432" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1402" priority="1433" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1414" priority="1433" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F56)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1401" priority="1434" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1413" priority="1434" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F56)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F58">
-    <cfRule type="containsText" dxfId="1400" priority="1427" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1412" priority="1427" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1399" priority="1428" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1411" priority="1428" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1398" priority="1429" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1410" priority="1429" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F58)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1397" priority="1430" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1409" priority="1430" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F58)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F61">
-    <cfRule type="containsText" dxfId="1396" priority="1423" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1408" priority="1423" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1395" priority="1424" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1407" priority="1424" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1394" priority="1425" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1406" priority="1425" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F61)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1393" priority="1426" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1405" priority="1426" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F61)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F59">
-    <cfRule type="containsText" dxfId="1392" priority="1419" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1404" priority="1419" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1391" priority="1420" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1403" priority="1420" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1390" priority="1421" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1402" priority="1421" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F59)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1389" priority="1422" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1401" priority="1422" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F59)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F60">
-    <cfRule type="containsText" dxfId="1388" priority="1415" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1400" priority="1415" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1387" priority="1416" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1399" priority="1416" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1386" priority="1417" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1398" priority="1417" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F60)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1385" priority="1418" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1397" priority="1418" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F60)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F62">
-    <cfRule type="containsText" dxfId="1384" priority="1411" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1396" priority="1411" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1383" priority="1412" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1395" priority="1412" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1382" priority="1413" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1394" priority="1413" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F62)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1381" priority="1414" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1393" priority="1414" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F62)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F65">
-    <cfRule type="containsText" dxfId="1380" priority="1407" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1392" priority="1407" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1379" priority="1408" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1391" priority="1408" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1378" priority="1409" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1390" priority="1409" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F65)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1377" priority="1410" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1389" priority="1410" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F65)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F63">
-    <cfRule type="containsText" dxfId="1376" priority="1403" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1388" priority="1403" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1375" priority="1404" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1387" priority="1404" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1374" priority="1405" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1386" priority="1405" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F63)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1373" priority="1406" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1385" priority="1406" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F63)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F64">
-    <cfRule type="containsText" dxfId="1372" priority="1399" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1384" priority="1399" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1371" priority="1400" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1383" priority="1400" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1370" priority="1401" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1382" priority="1401" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F64)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1369" priority="1402" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1381" priority="1402" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F64)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F66">
-    <cfRule type="containsText" dxfId="1368" priority="1395" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1380" priority="1395" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1367" priority="1396" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1379" priority="1396" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1366" priority="1397" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1378" priority="1397" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F66)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1365" priority="1398" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1377" priority="1398" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F66)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F69">
-    <cfRule type="containsText" dxfId="1364" priority="1391" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1376" priority="1391" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1363" priority="1392" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1375" priority="1392" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1362" priority="1393" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1374" priority="1393" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F69)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1361" priority="1394" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1373" priority="1394" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F69)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F67">
-    <cfRule type="containsText" dxfId="1360" priority="1387" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1372" priority="1387" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1359" priority="1388" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1371" priority="1388" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1358" priority="1389" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1370" priority="1389" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F67)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1357" priority="1390" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1369" priority="1390" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F67)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F68">
-    <cfRule type="containsText" dxfId="1356" priority="1383" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1368" priority="1383" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1355" priority="1384" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1367" priority="1384" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1354" priority="1385" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1366" priority="1385" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F68)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1353" priority="1386" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1365" priority="1386" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F68)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F70">
-    <cfRule type="containsText" dxfId="1352" priority="1379" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1364" priority="1379" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1351" priority="1380" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1363" priority="1380" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1350" priority="1381" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1362" priority="1381" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F70)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1349" priority="1382" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1361" priority="1382" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F70)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F73">
-    <cfRule type="containsText" dxfId="1348" priority="1375" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1360" priority="1375" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1347" priority="1376" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1359" priority="1376" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1346" priority="1377" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1358" priority="1377" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F73)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1345" priority="1378" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1357" priority="1378" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F73)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F71">
-    <cfRule type="containsText" dxfId="1344" priority="1371" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1356" priority="1371" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1343" priority="1372" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1355" priority="1372" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1342" priority="1373" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1354" priority="1373" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F71)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1341" priority="1374" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1353" priority="1374" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F71)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F72">
-    <cfRule type="containsText" dxfId="1340" priority="1367" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1352" priority="1367" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1339" priority="1368" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1351" priority="1368" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1338" priority="1369" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1350" priority="1369" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F72)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1337" priority="1370" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1349" priority="1370" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F72)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F74">
-    <cfRule type="containsText" dxfId="1336" priority="1363" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1348" priority="1363" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1335" priority="1364" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1347" priority="1364" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1334" priority="1365" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1346" priority="1365" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F74)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1333" priority="1366" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1345" priority="1366" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F74)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F77">
-    <cfRule type="containsText" dxfId="1332" priority="1359" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1344" priority="1359" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1331" priority="1360" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1343" priority="1360" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1330" priority="1361" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1342" priority="1361" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F77)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1329" priority="1362" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1341" priority="1362" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F77)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F75">
-    <cfRule type="containsText" dxfId="1328" priority="1355" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1340" priority="1355" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1327" priority="1356" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1339" priority="1356" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1326" priority="1357" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1338" priority="1357" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F75)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1325" priority="1358" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1337" priority="1358" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F75)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F76">
-    <cfRule type="containsText" dxfId="1324" priority="1351" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1336" priority="1351" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1323" priority="1352" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1335" priority="1352" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1322" priority="1353" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1334" priority="1353" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F76)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1321" priority="1354" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1333" priority="1354" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F76)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F78">
-    <cfRule type="containsText" dxfId="1320" priority="1347" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1332" priority="1347" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1319" priority="1348" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1331" priority="1348" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1318" priority="1349" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1330" priority="1349" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F78)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1317" priority="1350" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1329" priority="1350" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F78)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F81">
-    <cfRule type="containsText" dxfId="1316" priority="1343" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1328" priority="1343" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1315" priority="1344" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1327" priority="1344" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1314" priority="1345" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1326" priority="1345" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F81)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1313" priority="1346" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1325" priority="1346" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F81)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F79">
-    <cfRule type="containsText" dxfId="1312" priority="1339" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1324" priority="1339" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1311" priority="1340" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1323" priority="1340" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1310" priority="1341" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1322" priority="1341" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F79)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1309" priority="1342" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1321" priority="1342" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F79)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F80">
-    <cfRule type="containsText" dxfId="1308" priority="1335" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1320" priority="1335" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1307" priority="1336" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1319" priority="1336" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1306" priority="1337" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1318" priority="1337" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F80)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1305" priority="1338" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1317" priority="1338" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F80)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F82">
-    <cfRule type="containsText" dxfId="1304" priority="1331" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1316" priority="1331" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1303" priority="1332" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1315" priority="1332" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1302" priority="1333" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1314" priority="1333" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F82)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1301" priority="1334" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1313" priority="1334" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F82)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F85">
-    <cfRule type="containsText" dxfId="1300" priority="1327" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1312" priority="1327" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1299" priority="1328" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1311" priority="1328" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1298" priority="1329" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1310" priority="1329" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F85)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1297" priority="1330" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1309" priority="1330" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F85)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F83">
-    <cfRule type="containsText" dxfId="1296" priority="1323" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1308" priority="1323" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1295" priority="1324" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1307" priority="1324" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1294" priority="1325" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1306" priority="1325" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F83)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1293" priority="1326" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1305" priority="1326" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F83)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F84">
-    <cfRule type="containsText" dxfId="1292" priority="1319" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1304" priority="1319" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1291" priority="1320" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1303" priority="1320" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1290" priority="1321" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1302" priority="1321" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F84)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1289" priority="1322" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1301" priority="1322" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F84)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F86">
-    <cfRule type="containsText" dxfId="1288" priority="1315" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1300" priority="1315" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1287" priority="1316" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1299" priority="1316" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1286" priority="1317" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1298" priority="1317" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F86)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1285" priority="1318" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1297" priority="1318" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F86)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F89">
-    <cfRule type="containsText" dxfId="1284" priority="1311" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1296" priority="1311" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1283" priority="1312" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1295" priority="1312" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1282" priority="1313" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1294" priority="1313" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F89)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1281" priority="1314" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1293" priority="1314" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F89)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F87">
-    <cfRule type="containsText" dxfId="1280" priority="1307" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1292" priority="1307" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1279" priority="1308" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1291" priority="1308" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1278" priority="1309" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1290" priority="1309" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F87)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1277" priority="1310" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1289" priority="1310" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F87)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F88">
-    <cfRule type="containsText" dxfId="1276" priority="1303" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1288" priority="1303" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1275" priority="1304" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1287" priority="1304" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1274" priority="1305" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1286" priority="1305" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F88)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1273" priority="1306" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1285" priority="1306" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F88)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F90">
-    <cfRule type="containsText" dxfId="1272" priority="1299" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1284" priority="1299" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1271" priority="1300" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1283" priority="1300" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1270" priority="1301" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1282" priority="1301" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F90)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1269" priority="1302" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1281" priority="1302" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F90)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F93">
-    <cfRule type="containsText" dxfId="1268" priority="1295" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1280" priority="1295" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1267" priority="1296" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1279" priority="1296" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1266" priority="1297" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1278" priority="1297" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F93)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1265" priority="1298" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1277" priority="1298" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F93)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F91">
-    <cfRule type="containsText" dxfId="1264" priority="1291" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1276" priority="1291" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1263" priority="1292" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1275" priority="1292" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1262" priority="1293" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1274" priority="1293" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F91)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1261" priority="1294" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1273" priority="1294" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F91)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F92">
-    <cfRule type="containsText" dxfId="1260" priority="1287" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1272" priority="1287" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1259" priority="1288" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1271" priority="1288" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1258" priority="1289" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1270" priority="1289" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F92)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1257" priority="1290" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1269" priority="1290" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F92)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F94">
-    <cfRule type="containsText" dxfId="1256" priority="1283" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1268" priority="1283" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1255" priority="1284" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1267" priority="1284" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1254" priority="1285" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1266" priority="1285" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F94)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1253" priority="1286" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1265" priority="1286" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F94)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F97">
-    <cfRule type="containsText" dxfId="1252" priority="1279" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1264" priority="1279" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1251" priority="1280" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1263" priority="1280" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1250" priority="1281" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1262" priority="1281" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F97)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1249" priority="1282" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1261" priority="1282" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F97)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F95">
-    <cfRule type="containsText" dxfId="1248" priority="1275" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1260" priority="1275" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1247" priority="1276" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1259" priority="1276" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1246" priority="1277" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1258" priority="1277" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F95)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1245" priority="1278" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1257" priority="1278" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F95)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F96">
-    <cfRule type="containsText" dxfId="1244" priority="1271" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1256" priority="1271" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1243" priority="1272" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1255" priority="1272" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1242" priority="1273" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1254" priority="1273" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F96)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1241" priority="1274" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1253" priority="1274" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F96)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F98">
-    <cfRule type="containsText" dxfId="1240" priority="1267" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1252" priority="1267" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1239" priority="1268" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1251" priority="1268" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1238" priority="1269" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1250" priority="1269" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F98)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1237" priority="1270" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1249" priority="1270" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F98)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F99">
-    <cfRule type="containsText" dxfId="1236" priority="1263" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1248" priority="1263" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1235" priority="1264" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1247" priority="1264" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1234" priority="1265" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1246" priority="1265" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F99)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1233" priority="1266" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1245" priority="1266" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F99)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F100">
-    <cfRule type="containsText" dxfId="1232" priority="1259" operator="containsText" text="C">
+    <cfRule type="containsText" dxfId="1244" priority="1259" operator="containsText" text="C">
       <formula>NOT(ISERROR(SEARCH("C",F100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1231" priority="1260" operator="containsText" text="B">
+    <cfRule type="containsText" dxfId="1243" priority="1260" operator="containsText" text="B">
       <formula>NOT(ISERROR(SEARCH("B",F100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1230" priority="1261" operator="containsText" text="A">
+    <cfRule type="containsText" dxfId="1242" priority="1261" operator="containsText" text="A">
       <formula>NOT(ISERROR(SEARCH("A",F100)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1229" priority="1262" operator="containsText" text="S">
+    <cfRule type="containsText" dxfId="1241" priority="1262" operator="containsText" text="S">
       <formula>NOT(ISERROR(SEARCH("S",F100)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="beginsWith" dxfId="1228" priority="1254" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1240" priority="1254" operator="beginsWith" text="1">
       <formula>LEFT(H3,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1227" priority="1255" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1239" priority="1255" operator="beginsWith" text="7">
       <formula>LEFT(H3,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1226" priority="1256" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1238" priority="1256" operator="beginsWith" text="5">
       <formula>LEFT(H3,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1225" priority="1257" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1237" priority="1257" operator="beginsWith" text="2">
       <formula>LEFT(H3,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1224" priority="1258" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1236" priority="1258" operator="beginsWith" text="0">
       <formula>LEFT(H3,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H4">
-    <cfRule type="beginsWith" dxfId="1223" priority="1249" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1235" priority="1249" operator="beginsWith" text="1">
       <formula>LEFT(H4,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1222" priority="1250" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1234" priority="1250" operator="beginsWith" text="7">
       <formula>LEFT(H4,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1221" priority="1251" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1233" priority="1251" operator="beginsWith" text="5">
       <formula>LEFT(H4,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1220" priority="1252" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1232" priority="1252" operator="beginsWith" text="2">
       <formula>LEFT(H4,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1219" priority="1253" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1231" priority="1253" operator="beginsWith" text="0">
       <formula>LEFT(H4,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="beginsWith" dxfId="1218" priority="1244" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1230" priority="1244" operator="beginsWith" text="1">
       <formula>LEFT(H5,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1217" priority="1245" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1229" priority="1245" operator="beginsWith" text="7">
       <formula>LEFT(H5,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1216" priority="1246" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1228" priority="1246" operator="beginsWith" text="5">
       <formula>LEFT(H5,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1215" priority="1247" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1227" priority="1247" operator="beginsWith" text="2">
       <formula>LEFT(H5,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1214" priority="1248" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1226" priority="1248" operator="beginsWith" text="0">
       <formula>LEFT(H5,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H6">
-    <cfRule type="beginsWith" dxfId="1213" priority="1239" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1225" priority="1239" operator="beginsWith" text="1">
       <formula>LEFT(H6,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1212" priority="1240" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1224" priority="1240" operator="beginsWith" text="7">
       <formula>LEFT(H6,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1211" priority="1241" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1223" priority="1241" operator="beginsWith" text="5">
       <formula>LEFT(H6,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1210" priority="1242" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1222" priority="1242" operator="beginsWith" text="2">
       <formula>LEFT(H6,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1209" priority="1243" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1221" priority="1243" operator="beginsWith" text="0">
       <formula>LEFT(H6,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H7">
-    <cfRule type="beginsWith" dxfId="1208" priority="1234" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1220" priority="1234" operator="beginsWith" text="1">
       <formula>LEFT(H7,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1207" priority="1235" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1219" priority="1235" operator="beginsWith" text="7">
       <formula>LEFT(H7,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1206" priority="1236" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1218" priority="1236" operator="beginsWith" text="5">
       <formula>LEFT(H7,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1205" priority="1237" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1217" priority="1237" operator="beginsWith" text="2">
       <formula>LEFT(H7,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1204" priority="1238" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1216" priority="1238" operator="beginsWith" text="0">
       <formula>LEFT(H7,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H8">
-    <cfRule type="beginsWith" dxfId="1203" priority="1229" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1215" priority="1229" operator="beginsWith" text="1">
       <formula>LEFT(H8,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1202" priority="1230" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1214" priority="1230" operator="beginsWith" text="7">
       <formula>LEFT(H8,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1201" priority="1231" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1213" priority="1231" operator="beginsWith" text="5">
       <formula>LEFT(H8,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1200" priority="1232" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1212" priority="1232" operator="beginsWith" text="2">
       <formula>LEFT(H8,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1199" priority="1233" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1211" priority="1233" operator="beginsWith" text="0">
       <formula>LEFT(H8,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H9">
-    <cfRule type="beginsWith" dxfId="1198" priority="1224" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1210" priority="1224" operator="beginsWith" text="1">
       <formula>LEFT(H9,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1197" priority="1225" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1209" priority="1225" operator="beginsWith" text="7">
       <formula>LEFT(H9,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1196" priority="1226" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1208" priority="1226" operator="beginsWith" text="5">
       <formula>LEFT(H9,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1195" priority="1227" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1207" priority="1227" operator="beginsWith" text="2">
       <formula>LEFT(H9,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1194" priority="1228" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1206" priority="1228" operator="beginsWith" text="0">
       <formula>LEFT(H9,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H10">
-    <cfRule type="beginsWith" dxfId="1193" priority="1219" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1205" priority="1219" operator="beginsWith" text="1">
       <formula>LEFT(H10,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1192" priority="1220" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1204" priority="1220" operator="beginsWith" text="7">
       <formula>LEFT(H10,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1191" priority="1221" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1203" priority="1221" operator="beginsWith" text="5">
       <formula>LEFT(H10,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1190" priority="1222" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1202" priority="1222" operator="beginsWith" text="2">
       <formula>LEFT(H10,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1189" priority="1223" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1201" priority="1223" operator="beginsWith" text="0">
       <formula>LEFT(H10,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H11">
-    <cfRule type="beginsWith" dxfId="1188" priority="1214" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1200" priority="1214" operator="beginsWith" text="1">
       <formula>LEFT(H11,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1187" priority="1215" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1199" priority="1215" operator="beginsWith" text="7">
       <formula>LEFT(H11,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1186" priority="1216" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1198" priority="1216" operator="beginsWith" text="5">
       <formula>LEFT(H11,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1185" priority="1217" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1197" priority="1217" operator="beginsWith" text="2">
       <formula>LEFT(H11,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1184" priority="1218" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1196" priority="1218" operator="beginsWith" text="0">
       <formula>LEFT(H11,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H12">
-    <cfRule type="beginsWith" dxfId="1183" priority="1209" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1195" priority="1209" operator="beginsWith" text="1">
       <formula>LEFT(H12,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1182" priority="1210" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1194" priority="1210" operator="beginsWith" text="7">
       <formula>LEFT(H12,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1181" priority="1211" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1193" priority="1211" operator="beginsWith" text="5">
       <formula>LEFT(H12,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1180" priority="1212" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1192" priority="1212" operator="beginsWith" text="2">
       <formula>LEFT(H12,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1179" priority="1213" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1191" priority="1213" operator="beginsWith" text="0">
       <formula>LEFT(H12,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H13">
-    <cfRule type="beginsWith" dxfId="1178" priority="1204" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1190" priority="1204" operator="beginsWith" text="1">
       <formula>LEFT(H13,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1177" priority="1205" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1189" priority="1205" operator="beginsWith" text="7">
       <formula>LEFT(H13,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1176" priority="1206" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1188" priority="1206" operator="beginsWith" text="5">
       <formula>LEFT(H13,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1175" priority="1207" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1187" priority="1207" operator="beginsWith" text="2">
       <formula>LEFT(H13,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1174" priority="1208" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1186" priority="1208" operator="beginsWith" text="0">
       <formula>LEFT(H13,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H14">
-    <cfRule type="beginsWith" dxfId="1173" priority="1199" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1185" priority="1199" operator="beginsWith" text="1">
       <formula>LEFT(H14,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1172" priority="1200" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1184" priority="1200" operator="beginsWith" text="7">
       <formula>LEFT(H14,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1171" priority="1201" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1183" priority="1201" operator="beginsWith" text="5">
       <formula>LEFT(H14,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1170" priority="1202" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1182" priority="1202" operator="beginsWith" text="2">
       <formula>LEFT(H14,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1169" priority="1203" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1181" priority="1203" operator="beginsWith" text="0">
       <formula>LEFT(H14,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H15">
-    <cfRule type="beginsWith" dxfId="1168" priority="1194" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1180" priority="1194" operator="beginsWith" text="1">
       <formula>LEFT(H15,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1167" priority="1195" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1179" priority="1195" operator="beginsWith" text="7">
       <formula>LEFT(H15,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1166" priority="1196" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1178" priority="1196" operator="beginsWith" text="5">
       <formula>LEFT(H15,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1165" priority="1197" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1177" priority="1197" operator="beginsWith" text="2">
       <formula>LEFT(H15,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1164" priority="1198" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1176" priority="1198" operator="beginsWith" text="0">
       <formula>LEFT(H15,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H16">
-    <cfRule type="beginsWith" dxfId="1163" priority="1189" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1175" priority="1189" operator="beginsWith" text="1">
       <formula>LEFT(H16,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1162" priority="1190" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1174" priority="1190" operator="beginsWith" text="7">
       <formula>LEFT(H16,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1161" priority="1191" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1173" priority="1191" operator="beginsWith" text="5">
       <formula>LEFT(H16,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1160" priority="1192" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1172" priority="1192" operator="beginsWith" text="2">
       <formula>LEFT(H16,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1159" priority="1193" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1171" priority="1193" operator="beginsWith" text="0">
       <formula>LEFT(H16,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H17">
-    <cfRule type="beginsWith" dxfId="1158" priority="1184" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1170" priority="1184" operator="beginsWith" text="1">
       <formula>LEFT(H17,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1157" priority="1185" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1169" priority="1185" operator="beginsWith" text="7">
       <formula>LEFT(H17,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1156" priority="1186" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1168" priority="1186" operator="beginsWith" text="5">
       <formula>LEFT(H17,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1155" priority="1187" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1167" priority="1187" operator="beginsWith" text="2">
       <formula>LEFT(H17,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1154" priority="1188" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1166" priority="1188" operator="beginsWith" text="0">
       <formula>LEFT(H17,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H18">
-    <cfRule type="beginsWith" dxfId="1153" priority="1179" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1165" priority="1179" operator="beginsWith" text="1">
       <formula>LEFT(H18,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1152" priority="1180" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1164" priority="1180" operator="beginsWith" text="7">
       <formula>LEFT(H18,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1151" priority="1181" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1163" priority="1181" operator="beginsWith" text="5">
       <formula>LEFT(H18,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1150" priority="1182" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1162" priority="1182" operator="beginsWith" text="2">
       <formula>LEFT(H18,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1149" priority="1183" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1161" priority="1183" operator="beginsWith" text="0">
       <formula>LEFT(H18,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="beginsWith" dxfId="1148" priority="1174" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1160" priority="1174" operator="beginsWith" text="1">
       <formula>LEFT(H19,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1147" priority="1175" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1159" priority="1175" operator="beginsWith" text="7">
       <formula>LEFT(H19,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1146" priority="1176" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1158" priority="1176" operator="beginsWith" text="5">
       <formula>LEFT(H19,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1145" priority="1177" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1157" priority="1177" operator="beginsWith" text="2">
       <formula>LEFT(H19,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1144" priority="1178" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1156" priority="1178" operator="beginsWith" text="0">
       <formula>LEFT(H19,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H20">
-    <cfRule type="beginsWith" dxfId="1143" priority="1169" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1155" priority="1169" operator="beginsWith" text="1">
       <formula>LEFT(H20,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1142" priority="1170" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1154" priority="1170" operator="beginsWith" text="7">
       <formula>LEFT(H20,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1141" priority="1171" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1153" priority="1171" operator="beginsWith" text="5">
       <formula>LEFT(H20,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1140" priority="1172" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1152" priority="1172" operator="beginsWith" text="2">
       <formula>LEFT(H20,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1139" priority="1173" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1151" priority="1173" operator="beginsWith" text="0">
       <formula>LEFT(H20,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H21">
-    <cfRule type="beginsWith" dxfId="1138" priority="1164" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1150" priority="1164" operator="beginsWith" text="1">
       <formula>LEFT(H21,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1137" priority="1165" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1149" priority="1165" operator="beginsWith" text="7">
       <formula>LEFT(H21,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1136" priority="1166" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1148" priority="1166" operator="beginsWith" text="5">
       <formula>LEFT(H21,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1135" priority="1167" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1147" priority="1167" operator="beginsWith" text="2">
       <formula>LEFT(H21,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1134" priority="1168" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1146" priority="1168" operator="beginsWith" text="0">
       <formula>LEFT(H21,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H22">
-    <cfRule type="beginsWith" dxfId="1133" priority="1159" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1145" priority="1159" operator="beginsWith" text="1">
       <formula>LEFT(H22,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1132" priority="1160" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1144" priority="1160" operator="beginsWith" text="7">
       <formula>LEFT(H22,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1131" priority="1161" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1143" priority="1161" operator="beginsWith" text="5">
       <formula>LEFT(H22,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1130" priority="1162" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1142" priority="1162" operator="beginsWith" text="2">
       <formula>LEFT(H22,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1129" priority="1163" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1141" priority="1163" operator="beginsWith" text="0">
       <formula>LEFT(H22,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H23">
-    <cfRule type="beginsWith" dxfId="1128" priority="1154" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1140" priority="1154" operator="beginsWith" text="1">
       <formula>LEFT(H23,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1127" priority="1155" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1139" priority="1155" operator="beginsWith" text="7">
       <formula>LEFT(H23,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1126" priority="1156" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1138" priority="1156" operator="beginsWith" text="5">
       <formula>LEFT(H23,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1125" priority="1157" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1137" priority="1157" operator="beginsWith" text="2">
       <formula>LEFT(H23,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1124" priority="1158" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1136" priority="1158" operator="beginsWith" text="0">
       <formula>LEFT(H23,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H24">
-    <cfRule type="beginsWith" dxfId="1123" priority="1149" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1135" priority="1149" operator="beginsWith" text="1">
       <formula>LEFT(H24,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1122" priority="1150" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1134" priority="1150" operator="beginsWith" text="7">
       <formula>LEFT(H24,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1121" priority="1151" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1133" priority="1151" operator="beginsWith" text="5">
       <formula>LEFT(H24,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1120" priority="1152" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1132" priority="1152" operator="beginsWith" text="2">
       <formula>LEFT(H24,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1119" priority="1153" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1131" priority="1153" operator="beginsWith" text="0">
       <formula>LEFT(H24,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H25">
-    <cfRule type="beginsWith" dxfId="1118" priority="1144" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1130" priority="1144" operator="beginsWith" text="1">
       <formula>LEFT(H25,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1117" priority="1145" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1129" priority="1145" operator="beginsWith" text="7">
       <formula>LEFT(H25,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1116" priority="1146" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1128" priority="1146" operator="beginsWith" text="5">
       <formula>LEFT(H25,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1115" priority="1147" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1127" priority="1147" operator="beginsWith" text="2">
       <formula>LEFT(H25,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1114" priority="1148" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1126" priority="1148" operator="beginsWith" text="0">
       <formula>LEFT(H25,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H26">
-    <cfRule type="beginsWith" dxfId="1113" priority="1139" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1125" priority="1139" operator="beginsWith" text="1">
       <formula>LEFT(H26,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1112" priority="1140" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1124" priority="1140" operator="beginsWith" text="7">
       <formula>LEFT(H26,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1111" priority="1141" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1123" priority="1141" operator="beginsWith" text="5">
       <formula>LEFT(H26,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1110" priority="1142" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1122" priority="1142" operator="beginsWith" text="2">
       <formula>LEFT(H26,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1109" priority="1143" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1121" priority="1143" operator="beginsWith" text="0">
       <formula>LEFT(H26,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H27">
-    <cfRule type="beginsWith" dxfId="1108" priority="1134" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1120" priority="1134" operator="beginsWith" text="1">
       <formula>LEFT(H27,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1107" priority="1135" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1119" priority="1135" operator="beginsWith" text="7">
       <formula>LEFT(H27,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1106" priority="1136" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1118" priority="1136" operator="beginsWith" text="5">
       <formula>LEFT(H27,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1105" priority="1137" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1117" priority="1137" operator="beginsWith" text="2">
       <formula>LEFT(H27,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1104" priority="1138" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1116" priority="1138" operator="beginsWith" text="0">
       <formula>LEFT(H27,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H28">
-    <cfRule type="beginsWith" dxfId="1103" priority="1129" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1115" priority="1129" operator="beginsWith" text="1">
       <formula>LEFT(H28,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1102" priority="1130" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1114" priority="1130" operator="beginsWith" text="7">
       <formula>LEFT(H28,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1101" priority="1131" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1113" priority="1131" operator="beginsWith" text="5">
       <formula>LEFT(H28,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1100" priority="1132" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1112" priority="1132" operator="beginsWith" text="2">
       <formula>LEFT(H28,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1099" priority="1133" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1111" priority="1133" operator="beginsWith" text="0">
       <formula>LEFT(H28,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H29">
-    <cfRule type="beginsWith" dxfId="1098" priority="1124" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1110" priority="1124" operator="beginsWith" text="1">
       <formula>LEFT(H29,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1097" priority="1125" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1109" priority="1125" operator="beginsWith" text="7">
       <formula>LEFT(H29,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1096" priority="1126" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1108" priority="1126" operator="beginsWith" text="5">
       <formula>LEFT(H29,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1095" priority="1127" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1107" priority="1127" operator="beginsWith" text="2">
       <formula>LEFT(H29,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1094" priority="1128" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1106" priority="1128" operator="beginsWith" text="0">
       <formula>LEFT(H29,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H30">
-    <cfRule type="beginsWith" dxfId="1093" priority="1119" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1105" priority="1119" operator="beginsWith" text="1">
       <formula>LEFT(H30,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1092" priority="1120" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1104" priority="1120" operator="beginsWith" text="7">
       <formula>LEFT(H30,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1091" priority="1121" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1103" priority="1121" operator="beginsWith" text="5">
       <formula>LEFT(H30,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1090" priority="1122" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1102" priority="1122" operator="beginsWith" text="2">
       <formula>LEFT(H30,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1089" priority="1123" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1101" priority="1123" operator="beginsWith" text="0">
       <formula>LEFT(H30,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H31">
-    <cfRule type="beginsWith" dxfId="1088" priority="1114" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1100" priority="1114" operator="beginsWith" text="1">
       <formula>LEFT(H31,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1087" priority="1115" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1099" priority="1115" operator="beginsWith" text="7">
       <formula>LEFT(H31,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1086" priority="1116" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1098" priority="1116" operator="beginsWith" text="5">
       <formula>LEFT(H31,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1085" priority="1117" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1097" priority="1117" operator="beginsWith" text="2">
       <formula>LEFT(H31,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1084" priority="1118" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1096" priority="1118" operator="beginsWith" text="0">
       <formula>LEFT(H31,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H32">
-    <cfRule type="beginsWith" dxfId="1083" priority="1109" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1095" priority="1109" operator="beginsWith" text="1">
       <formula>LEFT(H32,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1082" priority="1110" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1094" priority="1110" operator="beginsWith" text="7">
       <formula>LEFT(H32,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1081" priority="1111" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1093" priority="1111" operator="beginsWith" text="5">
       <formula>LEFT(H32,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1080" priority="1112" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1092" priority="1112" operator="beginsWith" text="2">
       <formula>LEFT(H32,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1079" priority="1113" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1091" priority="1113" operator="beginsWith" text="0">
       <formula>LEFT(H32,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H33">
-    <cfRule type="beginsWith" dxfId="1078" priority="1104" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1090" priority="1104" operator="beginsWith" text="1">
       <formula>LEFT(H33,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1077" priority="1105" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1089" priority="1105" operator="beginsWith" text="7">
       <formula>LEFT(H33,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1076" priority="1106" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1088" priority="1106" operator="beginsWith" text="5">
       <formula>LEFT(H33,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1075" priority="1107" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1087" priority="1107" operator="beginsWith" text="2">
       <formula>LEFT(H33,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1074" priority="1108" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1086" priority="1108" operator="beginsWith" text="0">
       <formula>LEFT(H33,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H34">
-    <cfRule type="beginsWith" dxfId="1073" priority="1099" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1085" priority="1099" operator="beginsWith" text="1">
       <formula>LEFT(H34,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1072" priority="1100" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1084" priority="1100" operator="beginsWith" text="7">
       <formula>LEFT(H34,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1071" priority="1101" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1083" priority="1101" operator="beginsWith" text="5">
       <formula>LEFT(H34,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1070" priority="1102" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1082" priority="1102" operator="beginsWith" text="2">
       <formula>LEFT(H34,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1069" priority="1103" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1081" priority="1103" operator="beginsWith" text="0">
       <formula>LEFT(H34,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H35">
-    <cfRule type="beginsWith" dxfId="1068" priority="1094" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1080" priority="1094" operator="beginsWith" text="1">
       <formula>LEFT(H35,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1067" priority="1095" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1079" priority="1095" operator="beginsWith" text="7">
       <formula>LEFT(H35,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1066" priority="1096" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1078" priority="1096" operator="beginsWith" text="5">
       <formula>LEFT(H35,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1065" priority="1097" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1077" priority="1097" operator="beginsWith" text="2">
       <formula>LEFT(H35,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1064" priority="1098" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1076" priority="1098" operator="beginsWith" text="0">
       <formula>LEFT(H35,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H36">
-    <cfRule type="beginsWith" dxfId="1063" priority="1089" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1075" priority="1089" operator="beginsWith" text="1">
       <formula>LEFT(H36,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1062" priority="1090" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1074" priority="1090" operator="beginsWith" text="7">
       <formula>LEFT(H36,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1061" priority="1091" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1073" priority="1091" operator="beginsWith" text="5">
       <formula>LEFT(H36,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1060" priority="1092" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1072" priority="1092" operator="beginsWith" text="2">
       <formula>LEFT(H36,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1059" priority="1093" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1071" priority="1093" operator="beginsWith" text="0">
       <formula>LEFT(H36,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H37">
-    <cfRule type="beginsWith" dxfId="1058" priority="1084" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1070" priority="1084" operator="beginsWith" text="1">
       <formula>LEFT(H37,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1057" priority="1085" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1069" priority="1085" operator="beginsWith" text="7">
       <formula>LEFT(H37,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1056" priority="1086" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1068" priority="1086" operator="beginsWith" text="5">
       <formula>LEFT(H37,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1055" priority="1087" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1067" priority="1087" operator="beginsWith" text="2">
       <formula>LEFT(H37,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1054" priority="1088" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1066" priority="1088" operator="beginsWith" text="0">
       <formula>LEFT(H37,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H38">
-    <cfRule type="beginsWith" dxfId="1053" priority="1079" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1065" priority="1079" operator="beginsWith" text="1">
       <formula>LEFT(H38,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1052" priority="1080" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1064" priority="1080" operator="beginsWith" text="7">
       <formula>LEFT(H38,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1051" priority="1081" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1063" priority="1081" operator="beginsWith" text="5">
       <formula>LEFT(H38,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1050" priority="1082" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1062" priority="1082" operator="beginsWith" text="2">
       <formula>LEFT(H38,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1049" priority="1083" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1061" priority="1083" operator="beginsWith" text="0">
       <formula>LEFT(H38,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H39">
-    <cfRule type="beginsWith" dxfId="1048" priority="1074" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1060" priority="1074" operator="beginsWith" text="1">
       <formula>LEFT(H39,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1047" priority="1075" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1059" priority="1075" operator="beginsWith" text="7">
       <formula>LEFT(H39,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1046" priority="1076" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1058" priority="1076" operator="beginsWith" text="5">
       <formula>LEFT(H39,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1045" priority="1077" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1057" priority="1077" operator="beginsWith" text="2">
       <formula>LEFT(H39,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1044" priority="1078" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1056" priority="1078" operator="beginsWith" text="0">
       <formula>LEFT(H39,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H40">
-    <cfRule type="beginsWith" dxfId="1043" priority="1069" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1055" priority="1069" operator="beginsWith" text="1">
       <formula>LEFT(H40,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1042" priority="1070" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1054" priority="1070" operator="beginsWith" text="7">
       <formula>LEFT(H40,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1041" priority="1071" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1053" priority="1071" operator="beginsWith" text="5">
       <formula>LEFT(H40,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1040" priority="1072" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1052" priority="1072" operator="beginsWith" text="2">
       <formula>LEFT(H40,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1039" priority="1073" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1051" priority="1073" operator="beginsWith" text="0">
       <formula>LEFT(H40,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H41">
-    <cfRule type="beginsWith" dxfId="1038" priority="1064" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1050" priority="1064" operator="beginsWith" text="1">
       <formula>LEFT(H41,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1037" priority="1065" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1049" priority="1065" operator="beginsWith" text="7">
       <formula>LEFT(H41,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1036" priority="1066" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1048" priority="1066" operator="beginsWith" text="5">
       <formula>LEFT(H41,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1035" priority="1067" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1047" priority="1067" operator="beginsWith" text="2">
       <formula>LEFT(H41,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1034" priority="1068" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1046" priority="1068" operator="beginsWith" text="0">
       <formula>LEFT(H41,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H42">
-    <cfRule type="beginsWith" dxfId="1033" priority="1059" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1045" priority="1059" operator="beginsWith" text="1">
       <formula>LEFT(H42,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1032" priority="1060" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1044" priority="1060" operator="beginsWith" text="7">
       <formula>LEFT(H42,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1031" priority="1061" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1043" priority="1061" operator="beginsWith" text="5">
       <formula>LEFT(H42,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1030" priority="1062" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1042" priority="1062" operator="beginsWith" text="2">
       <formula>LEFT(H42,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1029" priority="1063" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1041" priority="1063" operator="beginsWith" text="0">
       <formula>LEFT(H42,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H43">
-    <cfRule type="beginsWith" dxfId="1028" priority="1054" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1040" priority="1054" operator="beginsWith" text="1">
       <formula>LEFT(H43,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1027" priority="1055" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1039" priority="1055" operator="beginsWith" text="7">
       <formula>LEFT(H43,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1026" priority="1056" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1038" priority="1056" operator="beginsWith" text="5">
       <formula>LEFT(H43,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1025" priority="1057" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1037" priority="1057" operator="beginsWith" text="2">
       <formula>LEFT(H43,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1024" priority="1058" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1036" priority="1058" operator="beginsWith" text="0">
       <formula>LEFT(H43,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H44">
-    <cfRule type="beginsWith" dxfId="1023" priority="1049" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1035" priority="1049" operator="beginsWith" text="1">
       <formula>LEFT(H44,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1022" priority="1050" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1034" priority="1050" operator="beginsWith" text="7">
       <formula>LEFT(H44,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1021" priority="1051" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1033" priority="1051" operator="beginsWith" text="5">
       <formula>LEFT(H44,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1020" priority="1052" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1032" priority="1052" operator="beginsWith" text="2">
       <formula>LEFT(H44,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1019" priority="1053" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1031" priority="1053" operator="beginsWith" text="0">
       <formula>LEFT(H44,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H45">
-    <cfRule type="beginsWith" dxfId="1018" priority="1044" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1030" priority="1044" operator="beginsWith" text="1">
       <formula>LEFT(H45,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1017" priority="1045" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1029" priority="1045" operator="beginsWith" text="7">
       <formula>LEFT(H45,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1016" priority="1046" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1028" priority="1046" operator="beginsWith" text="5">
       <formula>LEFT(H45,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1015" priority="1047" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1027" priority="1047" operator="beginsWith" text="2">
       <formula>LEFT(H45,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1014" priority="1048" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1026" priority="1048" operator="beginsWith" text="0">
       <formula>LEFT(H45,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H46">
-    <cfRule type="beginsWith" dxfId="1013" priority="1039" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1025" priority="1039" operator="beginsWith" text="1">
       <formula>LEFT(H46,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1012" priority="1040" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1024" priority="1040" operator="beginsWith" text="7">
       <formula>LEFT(H46,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1011" priority="1041" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1023" priority="1041" operator="beginsWith" text="5">
       <formula>LEFT(H46,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1010" priority="1042" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1022" priority="1042" operator="beginsWith" text="2">
       <formula>LEFT(H46,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1009" priority="1043" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1021" priority="1043" operator="beginsWith" text="0">
       <formula>LEFT(H46,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H47">
-    <cfRule type="beginsWith" dxfId="1008" priority="1034" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1020" priority="1034" operator="beginsWith" text="1">
       <formula>LEFT(H47,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1007" priority="1035" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1019" priority="1035" operator="beginsWith" text="7">
       <formula>LEFT(H47,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1006" priority="1036" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1018" priority="1036" operator="beginsWith" text="5">
       <formula>LEFT(H47,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1005" priority="1037" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1017" priority="1037" operator="beginsWith" text="2">
       <formula>LEFT(H47,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1004" priority="1038" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1016" priority="1038" operator="beginsWith" text="0">
       <formula>LEFT(H47,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H48">
-    <cfRule type="beginsWith" dxfId="1003" priority="1029" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1015" priority="1029" operator="beginsWith" text="1">
       <formula>LEFT(H48,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1002" priority="1030" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1014" priority="1030" operator="beginsWith" text="7">
       <formula>LEFT(H48,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1001" priority="1031" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1013" priority="1031" operator="beginsWith" text="5">
       <formula>LEFT(H48,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="1000" priority="1032" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1012" priority="1032" operator="beginsWith" text="2">
       <formula>LEFT(H48,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="999" priority="1033" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1011" priority="1033" operator="beginsWith" text="0">
       <formula>LEFT(H48,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H49">
-    <cfRule type="beginsWith" dxfId="998" priority="1024" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1010" priority="1024" operator="beginsWith" text="1">
       <formula>LEFT(H49,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="997" priority="1025" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1009" priority="1025" operator="beginsWith" text="7">
       <formula>LEFT(H49,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="996" priority="1026" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1008" priority="1026" operator="beginsWith" text="5">
       <formula>LEFT(H49,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="995" priority="1027" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1007" priority="1027" operator="beginsWith" text="2">
       <formula>LEFT(H49,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="994" priority="1028" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1006" priority="1028" operator="beginsWith" text="0">
       <formula>LEFT(H49,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H50">
-    <cfRule type="beginsWith" dxfId="993" priority="1019" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1005" priority="1019" operator="beginsWith" text="1">
       <formula>LEFT(H50,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="992" priority="1020" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="1004" priority="1020" operator="beginsWith" text="7">
       <formula>LEFT(H50,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="991" priority="1021" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="1003" priority="1021" operator="beginsWith" text="5">
       <formula>LEFT(H50,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="990" priority="1022" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="1002" priority="1022" operator="beginsWith" text="2">
       <formula>LEFT(H50,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="989" priority="1023" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="1001" priority="1023" operator="beginsWith" text="0">
       <formula>LEFT(H50,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H51">
-    <cfRule type="beginsWith" dxfId="988" priority="1014" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="1000" priority="1014" operator="beginsWith" text="1">
       <formula>LEFT(H51,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="987" priority="1015" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="999" priority="1015" operator="beginsWith" text="7">
       <formula>LEFT(H51,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="986" priority="1016" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="998" priority="1016" operator="beginsWith" text="5">
       <formula>LEFT(H51,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="985" priority="1017" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="997" priority="1017" operator="beginsWith" text="2">
       <formula>LEFT(H51,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="984" priority="1018" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="996" priority="1018" operator="beginsWith" text="0">
       <formula>LEFT(H51,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H52">
-    <cfRule type="beginsWith" dxfId="983" priority="1009" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="995" priority="1009" operator="beginsWith" text="1">
       <formula>LEFT(H52,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="982" priority="1010" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="994" priority="1010" operator="beginsWith" text="7">
       <formula>LEFT(H52,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="981" priority="1011" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="993" priority="1011" operator="beginsWith" text="5">
       <formula>LEFT(H52,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="980" priority="1012" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="992" priority="1012" operator="beginsWith" text="2">
       <formula>LEFT(H52,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="979" priority="1013" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="991" priority="1013" operator="beginsWith" text="0">
       <formula>LEFT(H52,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H53">
-    <cfRule type="beginsWith" dxfId="978" priority="1004" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="990" priority="1004" operator="beginsWith" text="1">
       <formula>LEFT(H53,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="977" priority="1005" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="989" priority="1005" operator="beginsWith" text="7">
       <formula>LEFT(H53,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="976" priority="1006" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="988" priority="1006" operator="beginsWith" text="5">
       <formula>LEFT(H53,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="975" priority="1007" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="987" priority="1007" operator="beginsWith" text="2">
       <formula>LEFT(H53,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="974" priority="1008" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="986" priority="1008" operator="beginsWith" text="0">
       <formula>LEFT(H53,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H54">
-    <cfRule type="beginsWith" dxfId="973" priority="999" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="985" priority="999" operator="beginsWith" text="1">
       <formula>LEFT(H54,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="972" priority="1000" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="984" priority="1000" operator="beginsWith" text="7">
       <formula>LEFT(H54,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="971" priority="1001" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="983" priority="1001" operator="beginsWith" text="5">
       <formula>LEFT(H54,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="970" priority="1002" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="982" priority="1002" operator="beginsWith" text="2">
       <formula>LEFT(H54,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="969" priority="1003" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="981" priority="1003" operator="beginsWith" text="0">
       <formula>LEFT(H54,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H55">
-    <cfRule type="beginsWith" dxfId="968" priority="994" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="980" priority="994" operator="beginsWith" text="1">
       <formula>LEFT(H55,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="967" priority="995" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="979" priority="995" operator="beginsWith" text="7">
       <formula>LEFT(H55,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="966" priority="996" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="978" priority="996" operator="beginsWith" text="5">
       <formula>LEFT(H55,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="965" priority="997" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="977" priority="997" operator="beginsWith" text="2">
       <formula>LEFT(H55,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="964" priority="998" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="976" priority="998" operator="beginsWith" text="0">
       <formula>LEFT(H55,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H56">
-    <cfRule type="beginsWith" dxfId="963" priority="989" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="975" priority="989" operator="beginsWith" text="1">
       <formula>LEFT(H56,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="962" priority="990" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="974" priority="990" operator="beginsWith" text="7">
       <formula>LEFT(H56,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="961" priority="991" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="973" priority="991" operator="beginsWith" text="5">
       <formula>LEFT(H56,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="960" priority="992" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="972" priority="992" operator="beginsWith" text="2">
       <formula>LEFT(H56,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="959" priority="993" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="971" priority="993" operator="beginsWith" text="0">
       <formula>LEFT(H56,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H57">
-    <cfRule type="beginsWith" dxfId="958" priority="984" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="970" priority="984" operator="beginsWith" text="1">
       <formula>LEFT(H57,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="957" priority="985" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="969" priority="985" operator="beginsWith" text="7">
       <formula>LEFT(H57,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="956" priority="986" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="968" priority="986" operator="beginsWith" text="5">
       <formula>LEFT(H57,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="955" priority="987" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="967" priority="987" operator="beginsWith" text="2">
       <formula>LEFT(H57,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="954" priority="988" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="966" priority="988" operator="beginsWith" text="0">
       <formula>LEFT(H57,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H58">
-    <cfRule type="beginsWith" dxfId="953" priority="979" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="965" priority="979" operator="beginsWith" text="1">
       <formula>LEFT(H58,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="952" priority="980" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="964" priority="980" operator="beginsWith" text="7">
       <formula>LEFT(H58,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="951" priority="981" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="963" priority="981" operator="beginsWith" text="5">
       <formula>LEFT(H58,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="950" priority="982" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="962" priority="982" operator="beginsWith" text="2">
       <formula>LEFT(H58,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="949" priority="983" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="961" priority="983" operator="beginsWith" text="0">
       <formula>LEFT(H58,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H59">
-    <cfRule type="beginsWith" dxfId="948" priority="974" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="960" priority="974" operator="beginsWith" text="1">
       <formula>LEFT(H59,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="947" priority="975" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="959" priority="975" operator="beginsWith" text="7">
       <formula>LEFT(H59,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="946" priority="976" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="958" priority="976" operator="beginsWith" text="5">
       <formula>LEFT(H59,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="945" priority="977" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="957" priority="977" operator="beginsWith" text="2">
       <formula>LEFT(H59,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="944" priority="978" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="956" priority="978" operator="beginsWith" text="0">
       <formula>LEFT(H59,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H60">
-    <cfRule type="beginsWith" dxfId="943" priority="969" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="955" priority="969" operator="beginsWith" text="1">
       <formula>LEFT(H60,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="942" priority="970" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="954" priority="970" operator="beginsWith" text="7">
       <formula>LEFT(H60,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="941" priority="971" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="953" priority="971" operator="beginsWith" text="5">
       <formula>LEFT(H60,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="940" priority="972" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="952" priority="972" operator="beginsWith" text="2">
       <formula>LEFT(H60,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="939" priority="973" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="951" priority="973" operator="beginsWith" text="0">
       <formula>LEFT(H60,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H61">
-    <cfRule type="beginsWith" dxfId="938" priority="964" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="950" priority="964" operator="beginsWith" text="1">
       <formula>LEFT(H61,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="937" priority="965" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="949" priority="965" operator="beginsWith" text="7">
       <formula>LEFT(H61,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="936" priority="966" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="948" priority="966" operator="beginsWith" text="5">
       <formula>LEFT(H61,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="935" priority="967" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="947" priority="967" operator="beginsWith" text="2">
       <formula>LEFT(H61,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="934" priority="968" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="946" priority="968" operator="beginsWith" text="0">
       <formula>LEFT(H61,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H62">
-    <cfRule type="beginsWith" dxfId="933" priority="959" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="945" priority="959" operator="beginsWith" text="1">
       <formula>LEFT(H62,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="932" priority="960" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="944" priority="960" operator="beginsWith" text="7">
       <formula>LEFT(H62,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="931" priority="961" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="943" priority="961" operator="beginsWith" text="5">
       <formula>LEFT(H62,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="930" priority="962" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="942" priority="962" operator="beginsWith" text="2">
       <formula>LEFT(H62,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="929" priority="963" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="941" priority="963" operator="beginsWith" text="0">
       <formula>LEFT(H62,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H63">
-    <cfRule type="beginsWith" dxfId="928" priority="954" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="940" priority="954" operator="beginsWith" text="1">
       <formula>LEFT(H63,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="927" priority="955" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="939" priority="955" operator="beginsWith" text="7">
       <formula>LEFT(H63,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="926" priority="956" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="938" priority="956" operator="beginsWith" text="5">
       <formula>LEFT(H63,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="925" priority="957" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="937" priority="957" operator="beginsWith" text="2">
       <formula>LEFT(H63,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="924" priority="958" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="936" priority="958" operator="beginsWith" text="0">
       <formula>LEFT(H63,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H64">
-    <cfRule type="beginsWith" dxfId="923" priority="949" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="935" priority="949" operator="beginsWith" text="1">
       <formula>LEFT(H64,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="922" priority="950" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="934" priority="950" operator="beginsWith" text="7">
       <formula>LEFT(H64,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="921" priority="951" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="933" priority="951" operator="beginsWith" text="5">
       <formula>LEFT(H64,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="920" priority="952" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="932" priority="952" operator="beginsWith" text="2">
       <formula>LEFT(H64,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="919" priority="953" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="931" priority="953" operator="beginsWith" text="0">
       <formula>LEFT(H64,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H65">
-    <cfRule type="beginsWith" dxfId="918" priority="944" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="930" priority="944" operator="beginsWith" text="1">
       <formula>LEFT(H65,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="917" priority="945" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="929" priority="945" operator="beginsWith" text="7">
       <formula>LEFT(H65,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="916" priority="946" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="928" priority="946" operator="beginsWith" text="5">
       <formula>LEFT(H65,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="915" priority="947" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="927" priority="947" operator="beginsWith" text="2">
       <formula>LEFT(H65,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="914" priority="948" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="926" priority="948" operator="beginsWith" text="0">
       <formula>LEFT(H65,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H66">
-    <cfRule type="beginsWith" dxfId="913" priority="939" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="925" priority="939" operator="beginsWith" text="1">
       <formula>LEFT(H66,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="912" priority="940" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="924" priority="940" operator="beginsWith" text="7">
       <formula>LEFT(H66,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="911" priority="941" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="923" priority="941" operator="beginsWith" text="5">
       <formula>LEFT(H66,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="910" priority="942" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="922" priority="942" operator="beginsWith" text="2">
       <formula>LEFT(H66,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="909" priority="943" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="921" priority="943" operator="beginsWith" text="0">
       <formula>LEFT(H66,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H67">
-    <cfRule type="beginsWith" dxfId="908" priority="934" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="920" priority="934" operator="beginsWith" text="1">
       <formula>LEFT(H67,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="907" priority="935" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="919" priority="935" operator="beginsWith" text="7">
       <formula>LEFT(H67,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="906" priority="936" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="918" priority="936" operator="beginsWith" text="5">
       <formula>LEFT(H67,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="905" priority="937" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="917" priority="937" operator="beginsWith" text="2">
       <formula>LEFT(H67,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="904" priority="938" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="916" priority="938" operator="beginsWith" text="0">
       <formula>LEFT(H67,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H68">
-    <cfRule type="beginsWith" dxfId="903" priority="929" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="915" priority="929" operator="beginsWith" text="1">
       <formula>LEFT(H68,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="902" priority="930" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="914" priority="930" operator="beginsWith" text="7">
       <formula>LEFT(H68,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="901" priority="931" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="913" priority="931" operator="beginsWith" text="5">
       <formula>LEFT(H68,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="900" priority="932" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="912" priority="932" operator="beginsWith" text="2">
       <formula>LEFT(H68,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="899" priority="933" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="911" priority="933" operator="beginsWith" text="0">
       <formula>LEFT(H68,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H69">
-    <cfRule type="beginsWith" dxfId="898" priority="924" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="910" priority="924" operator="beginsWith" text="1">
       <formula>LEFT(H69,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="897" priority="925" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="909" priority="925" operator="beginsWith" text="7">
       <formula>LEFT(H69,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="896" priority="926" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="908" priority="926" operator="beginsWith" text="5">
       <formula>LEFT(H69,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="895" priority="927" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="907" priority="927" operator="beginsWith" text="2">
       <formula>LEFT(H69,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="894" priority="928" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="906" priority="928" operator="beginsWith" text="0">
       <formula>LEFT(H69,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H70">
-    <cfRule type="beginsWith" dxfId="893" priority="919" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="905" priority="919" operator="beginsWith" text="1">
       <formula>LEFT(H70,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="892" priority="920" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="904" priority="920" operator="beginsWith" text="7">
       <formula>LEFT(H70,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="891" priority="921" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="903" priority="921" operator="beginsWith" text="5">
       <formula>LEFT(H70,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="890" priority="922" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="902" priority="922" operator="beginsWith" text="2">
       <formula>LEFT(H70,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="889" priority="923" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="901" priority="923" operator="beginsWith" text="0">
       <formula>LEFT(H70,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H71">
-    <cfRule type="beginsWith" dxfId="888" priority="914" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="900" priority="914" operator="beginsWith" text="1">
       <formula>LEFT(H71,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="887" priority="915" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="899" priority="915" operator="beginsWith" text="7">
       <formula>LEFT(H71,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="886" priority="916" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="898" priority="916" operator="beginsWith" text="5">
       <formula>LEFT(H71,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="885" priority="917" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="897" priority="917" operator="beginsWith" text="2">
       <formula>LEFT(H71,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="884" priority="918" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="896" priority="918" operator="beginsWith" text="0">
       <formula>LEFT(H71,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H72">
-    <cfRule type="beginsWith" dxfId="883" priority="909" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="895" priority="909" operator="beginsWith" text="1">
       <formula>LEFT(H72,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="882" priority="910" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="894" priority="910" operator="beginsWith" text="7">
       <formula>LEFT(H72,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="881" priority="911" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="893" priority="911" operator="beginsWith" text="5">
       <formula>LEFT(H72,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="880" priority="912" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="892" priority="912" operator="beginsWith" text="2">
       <formula>LEFT(H72,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="879" priority="913" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="891" priority="913" operator="beginsWith" text="0">
       <formula>LEFT(H72,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H73">
-    <cfRule type="beginsWith" dxfId="878" priority="904" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="890" priority="904" operator="beginsWith" text="1">
       <formula>LEFT(H73,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="877" priority="905" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="889" priority="905" operator="beginsWith" text="7">
       <formula>LEFT(H73,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="876" priority="906" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="888" priority="906" operator="beginsWith" text="5">
       <formula>LEFT(H73,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="875" priority="907" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="887" priority="907" operator="beginsWith" text="2">
       <formula>LEFT(H73,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="874" priority="908" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="886" priority="908" operator="beginsWith" text="0">
       <formula>LEFT(H73,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H74">
-    <cfRule type="beginsWith" dxfId="873" priority="899" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="885" priority="899" operator="beginsWith" text="1">
       <formula>LEFT(H74,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="872" priority="900" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="884" priority="900" operator="beginsWith" text="7">
       <formula>LEFT(H74,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="871" priority="901" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="883" priority="901" operator="beginsWith" text="5">
       <formula>LEFT(H74,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="870" priority="902" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="882" priority="902" operator="beginsWith" text="2">
       <formula>LEFT(H74,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="869" priority="903" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="881" priority="903" operator="beginsWith" text="0">
       <formula>LEFT(H74,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H75">
-    <cfRule type="beginsWith" dxfId="868" priority="894" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="880" priority="894" operator="beginsWith" text="1">
       <formula>LEFT(H75,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="867" priority="895" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="879" priority="895" operator="beginsWith" text="7">
       <formula>LEFT(H75,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="866" priority="896" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="878" priority="896" operator="beginsWith" text="5">
       <formula>LEFT(H75,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="865" priority="897" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="877" priority="897" operator="beginsWith" text="2">
       <formula>LEFT(H75,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="864" priority="898" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="876" priority="898" operator="beginsWith" text="0">
       <formula>LEFT(H75,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H76">
-    <cfRule type="beginsWith" dxfId="863" priority="889" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="875" priority="889" operator="beginsWith" text="1">
       <formula>LEFT(H76,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="862" priority="890" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="874" priority="890" operator="beginsWith" text="7">
       <formula>LEFT(H76,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="861" priority="891" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="873" priority="891" operator="beginsWith" text="5">
       <formula>LEFT(H76,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="860" priority="892" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="872" priority="892" operator="beginsWith" text="2">
       <formula>LEFT(H76,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="859" priority="893" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="871" priority="893" operator="beginsWith" text="0">
       <formula>LEFT(H76,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H77">
-    <cfRule type="beginsWith" dxfId="858" priority="884" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="870" priority="884" operator="beginsWith" text="1">
       <formula>LEFT(H77,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="857" priority="885" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="869" priority="885" operator="beginsWith" text="7">
       <formula>LEFT(H77,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="856" priority="886" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="868" priority="886" operator="beginsWith" text="5">
       <formula>LEFT(H77,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="855" priority="887" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="867" priority="887" operator="beginsWith" text="2">
       <formula>LEFT(H77,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="854" priority="888" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="866" priority="888" operator="beginsWith" text="0">
       <formula>LEFT(H77,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H78">
-    <cfRule type="beginsWith" dxfId="853" priority="879" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="865" priority="879" operator="beginsWith" text="1">
       <formula>LEFT(H78,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="852" priority="880" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="864" priority="880" operator="beginsWith" text="7">
       <formula>LEFT(H78,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="851" priority="881" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="863" priority="881" operator="beginsWith" text="5">
       <formula>LEFT(H78,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="850" priority="882" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="862" priority="882" operator="beginsWith" text="2">
       <formula>LEFT(H78,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="849" priority="883" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="861" priority="883" operator="beginsWith" text="0">
       <formula>LEFT(H78,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H79">
-    <cfRule type="beginsWith" dxfId="848" priority="874" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="860" priority="874" operator="beginsWith" text="1">
       <formula>LEFT(H79,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="847" priority="875" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="859" priority="875" operator="beginsWith" text="7">
       <formula>LEFT(H79,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="846" priority="876" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="858" priority="876" operator="beginsWith" text="5">
       <formula>LEFT(H79,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="845" priority="877" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="857" priority="877" operator="beginsWith" text="2">
       <formula>LEFT(H79,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="844" priority="878" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="856" priority="878" operator="beginsWith" text="0">
       <formula>LEFT(H79,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H80">
-    <cfRule type="beginsWith" dxfId="843" priority="869" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="855" priority="869" operator="beginsWith" text="1">
       <formula>LEFT(H80,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="842" priority="870" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="854" priority="870" operator="beginsWith" text="7">
       <formula>LEFT(H80,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="841" priority="871" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="853" priority="871" operator="beginsWith" text="5">
       <formula>LEFT(H80,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="840" priority="872" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="852" priority="872" operator="beginsWith" text="2">
       <formula>LEFT(H80,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="839" priority="873" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="851" priority="873" operator="beginsWith" text="0">
       <formula>LEFT(H80,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H81">
-    <cfRule type="beginsWith" dxfId="838" priority="864" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="850" priority="864" operator="beginsWith" text="1">
       <formula>LEFT(H81,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="837" priority="865" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="849" priority="865" operator="beginsWith" text="7">
       <formula>LEFT(H81,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="836" priority="866" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="848" priority="866" operator="beginsWith" text="5">
       <formula>LEFT(H81,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="835" priority="867" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="847" priority="867" operator="beginsWith" text="2">
       <formula>LEFT(H81,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="834" priority="868" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="846" priority="868" operator="beginsWith" text="0">
       <formula>LEFT(H81,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H82">
-    <cfRule type="beginsWith" dxfId="833" priority="859" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="845" priority="859" operator="beginsWith" text="1">
       <formula>LEFT(H82,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="832" priority="860" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="844" priority="860" operator="beginsWith" text="7">
       <formula>LEFT(H82,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="831" priority="861" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="843" priority="861" operator="beginsWith" text="5">
       <formula>LEFT(H82,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="830" priority="862" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="842" priority="862" operator="beginsWith" text="2">
       <formula>LEFT(H82,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="829" priority="863" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="841" priority="863" operator="beginsWith" text="0">
       <formula>LEFT(H82,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H83">
-    <cfRule type="beginsWith" dxfId="828" priority="854" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="840" priority="854" operator="beginsWith" text="1">
       <formula>LEFT(H83,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="827" priority="855" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="839" priority="855" operator="beginsWith" text="7">
       <formula>LEFT(H83,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="826" priority="856" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="838" priority="856" operator="beginsWith" text="5">
       <formula>LEFT(H83,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="825" priority="857" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="837" priority="857" operator="beginsWith" text="2">
       <formula>LEFT(H83,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="824" priority="858" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="836" priority="858" operator="beginsWith" text="0">
       <formula>LEFT(H83,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H84">
-    <cfRule type="beginsWith" dxfId="823" priority="849" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="835" priority="849" operator="beginsWith" text="1">
       <formula>LEFT(H84,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="822" priority="850" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="834" priority="850" operator="beginsWith" text="7">
       <formula>LEFT(H84,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="821" priority="851" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="833" priority="851" operator="beginsWith" text="5">
       <formula>LEFT(H84,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="820" priority="852" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="832" priority="852" operator="beginsWith" text="2">
       <formula>LEFT(H84,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="819" priority="853" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="831" priority="853" operator="beginsWith" text="0">
       <formula>LEFT(H84,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H85">
-    <cfRule type="beginsWith" dxfId="818" priority="844" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="830" priority="844" operator="beginsWith" text="1">
       <formula>LEFT(H85,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="817" priority="845" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="829" priority="845" operator="beginsWith" text="7">
       <formula>LEFT(H85,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="816" priority="846" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="828" priority="846" operator="beginsWith" text="5">
       <formula>LEFT(H85,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="815" priority="847" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="827" priority="847" operator="beginsWith" text="2">
       <formula>LEFT(H85,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="814" priority="848" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="826" priority="848" operator="beginsWith" text="0">
       <formula>LEFT(H85,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H86">
-    <cfRule type="beginsWith" dxfId="813" priority="839" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="825" priority="839" operator="beginsWith" text="1">
       <formula>LEFT(H86,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="812" priority="840" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="824" priority="840" operator="beginsWith" text="7">
       <formula>LEFT(H86,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="811" priority="841" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="823" priority="841" operator="beginsWith" text="5">
       <formula>LEFT(H86,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="810" priority="842" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="822" priority="842" operator="beginsWith" text="2">
       <formula>LEFT(H86,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="809" priority="843" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="821" priority="843" operator="beginsWith" text="0">
       <formula>LEFT(H86,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H87">
-    <cfRule type="beginsWith" dxfId="808" priority="834" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="820" priority="834" operator="beginsWith" text="1">
       <formula>LEFT(H87,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="807" priority="835" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="819" priority="835" operator="beginsWith" text="7">
       <formula>LEFT(H87,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="806" priority="836" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="818" priority="836" operator="beginsWith" text="5">
       <formula>LEFT(H87,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="805" priority="837" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="817" priority="837" operator="beginsWith" text="2">
       <formula>LEFT(H87,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="804" priority="838" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="816" priority="838" operator="beginsWith" text="0">
       <formula>LEFT(H87,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H88">
-    <cfRule type="beginsWith" dxfId="803" priority="829" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="815" priority="829" operator="beginsWith" text="1">
       <formula>LEFT(H88,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="802" priority="830" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="814" priority="830" operator="beginsWith" text="7">
       <formula>LEFT(H88,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="801" priority="831" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="813" priority="831" operator="beginsWith" text="5">
       <formula>LEFT(H88,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="800" priority="832" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="812" priority="832" operator="beginsWith" text="2">
       <formula>LEFT(H88,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="799" priority="833" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="811" priority="833" operator="beginsWith" text="0">
       <formula>LEFT(H88,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H89">
-    <cfRule type="beginsWith" dxfId="798" priority="824" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="810" priority="824" operator="beginsWith" text="1">
       <formula>LEFT(H89,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="797" priority="825" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="809" priority="825" operator="beginsWith" text="7">
       <formula>LEFT(H89,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="796" priority="826" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="808" priority="826" operator="beginsWith" text="5">
       <formula>LEFT(H89,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="795" priority="827" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="807" priority="827" operator="beginsWith" text="2">
       <formula>LEFT(H89,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="794" priority="828" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="806" priority="828" operator="beginsWith" text="0">
       <formula>LEFT(H89,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H90">
-    <cfRule type="beginsWith" dxfId="793" priority="819" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="805" priority="819" operator="beginsWith" text="1">
       <formula>LEFT(H90,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="792" priority="820" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="804" priority="820" operator="beginsWith" text="7">
       <formula>LEFT(H90,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="791" priority="821" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="803" priority="821" operator="beginsWith" text="5">
       <formula>LEFT(H90,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="790" priority="822" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="802" priority="822" operator="beginsWith" text="2">
       <formula>LEFT(H90,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="789" priority="823" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="801" priority="823" operator="beginsWith" text="0">
       <formula>LEFT(H90,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H91">
-    <cfRule type="beginsWith" dxfId="788" priority="814" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="800" priority="814" operator="beginsWith" text="1">
       <formula>LEFT(H91,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="787" priority="815" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="799" priority="815" operator="beginsWith" text="7">
       <formula>LEFT(H91,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="786" priority="816" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="798" priority="816" operator="beginsWith" text="5">
       <formula>LEFT(H91,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="785" priority="817" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="797" priority="817" operator="beginsWith" text="2">
       <formula>LEFT(H91,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="784" priority="818" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="796" priority="818" operator="beginsWith" text="0">
       <formula>LEFT(H91,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H92">
-    <cfRule type="beginsWith" dxfId="783" priority="809" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="795" priority="809" operator="beginsWith" text="1">
       <formula>LEFT(H92,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="782" priority="810" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="794" priority="810" operator="beginsWith" text="7">
       <formula>LEFT(H92,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="781" priority="811" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="793" priority="811" operator="beginsWith" text="5">
       <formula>LEFT(H92,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="780" priority="812" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="792" priority="812" operator="beginsWith" text="2">
       <formula>LEFT(H92,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="779" priority="813" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="791" priority="813" operator="beginsWith" text="0">
       <formula>LEFT(H92,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H93">
-    <cfRule type="beginsWith" dxfId="778" priority="804" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="790" priority="804" operator="beginsWith" text="1">
       <formula>LEFT(H93,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="777" priority="805" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="789" priority="805" operator="beginsWith" text="7">
       <formula>LEFT(H93,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="776" priority="806" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="788" priority="806" operator="beginsWith" text="5">
       <formula>LEFT(H93,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="775" priority="807" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="787" priority="807" operator="beginsWith" text="2">
       <formula>LEFT(H93,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="774" priority="808" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="786" priority="808" operator="beginsWith" text="0">
       <formula>LEFT(H93,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H94">
-    <cfRule type="beginsWith" dxfId="773" priority="799" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="785" priority="799" operator="beginsWith" text="1">
       <formula>LEFT(H94,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="772" priority="800" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="784" priority="800" operator="beginsWith" text="7">
       <formula>LEFT(H94,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="771" priority="801" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="783" priority="801" operator="beginsWith" text="5">
       <formula>LEFT(H94,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="770" priority="802" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="782" priority="802" operator="beginsWith" text="2">
       <formula>LEFT(H94,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="769" priority="803" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="781" priority="803" operator="beginsWith" text="0">
       <formula>LEFT(H94,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H95">
-    <cfRule type="beginsWith" dxfId="768" priority="794" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="780" priority="794" operator="beginsWith" text="1">
       <formula>LEFT(H95,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="767" priority="795" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="779" priority="795" operator="beginsWith" text="7">
       <formula>LEFT(H95,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="766" priority="796" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="778" priority="796" operator="beginsWith" text="5">
       <formula>LEFT(H95,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="765" priority="797" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="777" priority="797" operator="beginsWith" text="2">
       <formula>LEFT(H95,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="764" priority="798" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="776" priority="798" operator="beginsWith" text="0">
       <formula>LEFT(H95,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H96">
-    <cfRule type="beginsWith" dxfId="763" priority="789" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="775" priority="789" operator="beginsWith" text="1">
       <formula>LEFT(H96,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="762" priority="790" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="774" priority="790" operator="beginsWith" text="7">
       <formula>LEFT(H96,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="761" priority="791" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="773" priority="791" operator="beginsWith" text="5">
       <formula>LEFT(H96,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="760" priority="792" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="772" priority="792" operator="beginsWith" text="2">
       <formula>LEFT(H96,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="759" priority="793" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="771" priority="793" operator="beginsWith" text="0">
       <formula>LEFT(H96,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H97">
-    <cfRule type="beginsWith" dxfId="758" priority="784" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="770" priority="784" operator="beginsWith" text="1">
       <formula>LEFT(H97,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="757" priority="785" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="769" priority="785" operator="beginsWith" text="7">
       <formula>LEFT(H97,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="756" priority="786" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="768" priority="786" operator="beginsWith" text="5">
       <formula>LEFT(H97,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="755" priority="787" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="767" priority="787" operator="beginsWith" text="2">
       <formula>LEFT(H97,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="754" priority="788" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="766" priority="788" operator="beginsWith" text="0">
       <formula>LEFT(H97,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H98">
-    <cfRule type="beginsWith" dxfId="753" priority="779" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="765" priority="779" operator="beginsWith" text="1">
       <formula>LEFT(H98,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="752" priority="780" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="764" priority="780" operator="beginsWith" text="7">
       <formula>LEFT(H98,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="751" priority="781" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="763" priority="781" operator="beginsWith" text="5">
       <formula>LEFT(H98,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="750" priority="782" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="762" priority="782" operator="beginsWith" text="2">
       <formula>LEFT(H98,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="749" priority="783" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="761" priority="783" operator="beginsWith" text="0">
       <formula>LEFT(H98,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H99">
-    <cfRule type="beginsWith" dxfId="748" priority="774" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="760" priority="774" operator="beginsWith" text="1">
       <formula>LEFT(H99,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="747" priority="775" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="759" priority="775" operator="beginsWith" text="7">
       <formula>LEFT(H99,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="746" priority="776" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="758" priority="776" operator="beginsWith" text="5">
       <formula>LEFT(H99,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="745" priority="777" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="757" priority="777" operator="beginsWith" text="2">
       <formula>LEFT(H99,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="744" priority="778" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="756" priority="778" operator="beginsWith" text="0">
       <formula>LEFT(H99,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H100">
-    <cfRule type="beginsWith" dxfId="743" priority="769" operator="beginsWith" text="1">
+    <cfRule type="beginsWith" dxfId="755" priority="769" operator="beginsWith" text="1">
       <formula>LEFT(H100,LEN("1"))="1"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="742" priority="770" operator="beginsWith" text="7">
+    <cfRule type="beginsWith" dxfId="754" priority="770" operator="beginsWith" text="7">
       <formula>LEFT(H100,LEN("7"))="7"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="741" priority="771" operator="beginsWith" text="5">
+    <cfRule type="beginsWith" dxfId="753" priority="771" operator="beginsWith" text="5">
       <formula>LEFT(H100,LEN("5"))="5"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="740" priority="772" operator="beginsWith" text="2">
+    <cfRule type="beginsWith" dxfId="752" priority="772" operator="beginsWith" text="2">
       <formula>LEFT(H100,LEN("2"))="2"</formula>
     </cfRule>
-    <cfRule type="beginsWith" dxfId="739" priority="773" operator="beginsWith" text="0">
+    <cfRule type="beginsWith" dxfId="751" priority="773" operator="beginsWith" text="0">
       <formula>LEFT(H100,LEN("0"))="0"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G3">
-    <cfRule type="containsText" dxfId="738" priority="765" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="750" priority="765" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="737" priority="766" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="749" priority="766" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="736" priority="767" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="748" priority="767" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="735" priority="768" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="747" priority="768" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5">
-    <cfRule type="containsText" dxfId="734" priority="761" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="746" priority="761" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="733" priority="762" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="745" priority="762" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="732" priority="763" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="744" priority="763" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G5)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="731" priority="764" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="743" priority="764" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G5)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4">
-    <cfRule type="containsText" dxfId="730" priority="757" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="742" priority="757" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="729" priority="758" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="741" priority="758" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="728" priority="759" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="740" priority="759" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G4)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="727" priority="760" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="739" priority="760" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G6">
-    <cfRule type="containsText" dxfId="726" priority="753" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="738" priority="753" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="725" priority="754" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="737" priority="754" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="724" priority="755" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="736" priority="755" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G6)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="723" priority="756" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="735" priority="756" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G6)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G7">
-    <cfRule type="containsText" dxfId="722" priority="749" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="734" priority="749" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="721" priority="750" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="733" priority="750" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="720" priority="751" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="732" priority="751" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G7)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="719" priority="752" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="731" priority="752" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G7)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G9">
-    <cfRule type="containsText" dxfId="718" priority="745" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="730" priority="745" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="717" priority="746" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="729" priority="746" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="716" priority="747" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="728" priority="747" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G9)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="715" priority="748" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="727" priority="748" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G9)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G8">
-    <cfRule type="containsText" dxfId="714" priority="741" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="726" priority="741" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="713" priority="742" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="725" priority="742" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="712" priority="743" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="724" priority="743" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G8)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="711" priority="744" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="723" priority="744" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G8)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G10">
-    <cfRule type="containsText" dxfId="710" priority="737" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="722" priority="737" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="709" priority="738" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="721" priority="738" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="708" priority="739" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="720" priority="739" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G10)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="707" priority="740" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="719" priority="740" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G10)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G11">
-    <cfRule type="containsText" dxfId="706" priority="733" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="718" priority="733" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="705" priority="734" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="717" priority="734" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="704" priority="735" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="716" priority="735" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G11)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="703" priority="736" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="715" priority="736" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G11)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G13">
-    <cfRule type="containsText" dxfId="702" priority="729" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="714" priority="729" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="701" priority="730" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="713" priority="730" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="700" priority="731" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="712" priority="731" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G13)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="699" priority="732" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="711" priority="732" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G13)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G12">
-    <cfRule type="containsText" dxfId="698" priority="725" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="710" priority="725" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="697" priority="726" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="709" priority="726" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="696" priority="727" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="708" priority="727" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G12)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="695" priority="728" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="707" priority="728" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G12)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G14">
-    <cfRule type="containsText" dxfId="694" priority="721" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="706" priority="721" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="693" priority="722" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="705" priority="722" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="692" priority="723" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="704" priority="723" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G14)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="691" priority="724" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="703" priority="724" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G14)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G15">
-    <cfRule type="containsText" dxfId="690" priority="717" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="702" priority="717" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="689" priority="718" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="701" priority="718" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="688" priority="719" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="700" priority="719" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G15)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="687" priority="720" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="699" priority="720" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G15)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G17:G20">
-    <cfRule type="containsText" dxfId="686" priority="713" operator="containsText" text="黒岩">
+  <conditionalFormatting sqref="G17">
+    <cfRule type="containsText" dxfId="698" priority="713" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="685" priority="714" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="697" priority="714" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="684" priority="715" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="696" priority="715" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G17)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="683" priority="716" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="695" priority="716" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G17)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G16">
-    <cfRule type="containsText" dxfId="682" priority="709" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="694" priority="709" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="681" priority="710" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="693" priority="710" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="680" priority="711" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="692" priority="711" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G16)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="679" priority="712" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="691" priority="712" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G16)))</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="G18">
+    <cfRule type="containsText" dxfId="690" priority="705" operator="containsText" text="黒岩">
+      <formula>NOT(ISERROR(SEARCH("黒岩",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="689" priority="706" operator="containsText" text="池田">
+      <formula>NOT(ISERROR(SEARCH("池田",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="688" priority="707" operator="containsText" text="石">
+      <formula>NOT(ISERROR(SEARCH("石",G18)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="687" priority="708" operator="containsText" text="矢嶋">
+      <formula>NOT(ISERROR(SEARCH("矢嶋",G18)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G19">
+    <cfRule type="containsText" dxfId="686" priority="701" operator="containsText" text="黒岩">
+      <formula>NOT(ISERROR(SEARCH("黒岩",G19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="685" priority="702" operator="containsText" text="池田">
+      <formula>NOT(ISERROR(SEARCH("池田",G19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="684" priority="703" operator="containsText" text="石">
+      <formula>NOT(ISERROR(SEARCH("石",G19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="683" priority="704" operator="containsText" text="矢嶋">
+      <formula>NOT(ISERROR(SEARCH("矢嶋",G19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="G21">
-    <cfRule type="containsText" dxfId="678" priority="697" operator="containsText" text="黒岩">
+    <cfRule type="containsText" dxfId="682" priority="697" operator="containsText" text="黒岩">
       <formula>NOT(ISERROR(SEARCH("黒岩",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="677" priority="698" operator="containsText" text="池田">
+    <cfRule type="containsText" dxfId="681" priority="698" operator="containsText" text="池田">
       <formula>NOT(ISERROR(SEARCH("池田",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="676" priority="699" operator="containsText" text="石">
+    <cfRule type="containsText" dxfId="680" priority="699" operator="containsText" text="石">
       <formula>NOT(ISERROR(SEARCH("石",G21)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="675" priority="700" operator="containsText" text="矢嶋">
+    <cfRule type="containsText" dxfId="679" priority="700" operator="containsText" text="矢嶋">
       <formula>NOT(ISERROR(SEARCH("矢嶋",G21)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G20">
+    <cfRule type="containsText" dxfId="678" priority="693" operator="containsText" text="黒岩">
+      <formula>NOT(ISERROR(SEARCH("黒岩",G20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="677" priority="694" operator="containsText" text="池田">
+      <formula>NOT(ISERROR(SEARCH("池田",G20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="676" priority="695" operator="containsText" text="石">
+      <formula>NOT(ISERROR(SEARCH("石",G20)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="675" priority="696" operator="containsText" text="矢嶋">
+      <formula>NOT(ISERROR(SEARCH("矢嶋",G20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G22">

--- a/180216_最新版.xlsx
+++ b/180216_最新版.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yajima Tomoyuki\Documents\newTeam_03_Project_02\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -12161,11 +12161,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="B1:I101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I55" sqref="I55"/>
+      <pane ySplit="2" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -12231,7 +12232,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B4" s="17">
         <v>2</v>
       </c>
@@ -12251,7 +12252,7 @@
       </c>
       <c r="I4" s="22"/>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B5" s="15">
         <v>3</v>
       </c>
@@ -12387,7 +12388,7 @@
       </c>
       <c r="I10" s="22"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B11" s="15">
         <v>9</v>
       </c>
@@ -12433,7 +12434,7 @@
       </c>
       <c r="I12" s="22"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B13" s="15">
         <v>11</v>
       </c>
@@ -12455,7 +12456,7 @@
       </c>
       <c r="I13" s="20"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B14" s="17">
         <v>12</v>
       </c>
@@ -12615,7 +12616,7 @@
       </c>
       <c r="I20" s="22"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B21" s="15">
         <v>19</v>
       </c>
@@ -12655,13 +12656,13 @@
         <v>104</v>
       </c>
       <c r="H22" s="18">
-        <v>50</v>
+        <v>100</v>
       </c>
       <c r="I22" s="29">
         <v>43147</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B23" s="15">
         <v>21</v>
       </c>
@@ -12727,7 +12728,7 @@
       </c>
       <c r="I25" s="20"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B26" s="17">
         <v>24</v>
       </c>
@@ -12749,7 +12750,7 @@
       </c>
       <c r="I26" s="22"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B27" s="15">
         <v>25</v>
       </c>
@@ -12775,7 +12776,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B28" s="17">
         <v>26</v>
       </c>
@@ -12797,7 +12798,7 @@
       </c>
       <c r="I28" s="22"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B29" s="15">
         <v>27</v>
       </c>
@@ -12841,7 +12842,7 @@
       </c>
       <c r="I30" s="22"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B31" s="15">
         <v>29</v>
       </c>
@@ -12885,7 +12886,7 @@
       </c>
       <c r="I32" s="22"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="33" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B33" s="15">
         <v>31</v>
       </c>
@@ -12929,11 +12930,13 @@
         <v>104</v>
       </c>
       <c r="H34" s="18">
-        <v>0</v>
-      </c>
-      <c r="I34" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I34" s="29">
+        <v>43148</v>
+      </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="35" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B35" s="15">
         <v>33</v>
       </c>
@@ -12949,7 +12952,7 @@
       </c>
       <c r="I35" s="20"/>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="36" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B36" s="17">
         <v>34</v>
       </c>
@@ -12969,7 +12972,7 @@
       </c>
       <c r="I36" s="22"/>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="37" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B37" s="15">
         <v>35</v>
       </c>
@@ -13017,7 +13020,7 @@
         <v>43147</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="39" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B39" s="15">
         <v>37</v>
       </c>
@@ -13063,7 +13066,7 @@
       </c>
       <c r="I40" s="22"/>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="41" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B41" s="15">
         <v>39</v>
       </c>
@@ -13087,7 +13090,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="42" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B42" s="17">
         <v>40</v>
       </c>
@@ -13111,7 +13114,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="43" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B43" s="15">
         <v>41</v>
       </c>
@@ -13157,7 +13160,7 @@
       </c>
       <c r="I44" s="22"/>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="45" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B45" s="15">
         <v>43</v>
       </c>
@@ -13201,7 +13204,7 @@
       </c>
       <c r="I46" s="22"/>
     </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="47" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B47" s="15">
         <v>45</v>
       </c>
@@ -13221,11 +13224,13 @@
         <v>104</v>
       </c>
       <c r="H47" s="18">
-        <v>0</v>
-      </c>
-      <c r="I47" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I47" s="28">
+        <v>43148</v>
+      </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="48" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B48" s="17">
         <v>46</v>
       </c>
@@ -13333,7 +13338,7 @@
       </c>
       <c r="I52" s="22"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="53" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B53" s="15">
         <v>51</v>
       </c>
@@ -13403,7 +13408,7 @@
       </c>
       <c r="I55" s="20"/>
     </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="56" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B56" s="17">
         <v>54</v>
       </c>
@@ -13425,7 +13430,7 @@
       </c>
       <c r="I56" s="22"/>
     </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="57" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B57" s="15">
         <v>55</v>
       </c>
@@ -13447,7 +13452,7 @@
       </c>
       <c r="I57" s="20"/>
     </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="58" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B58" s="17">
         <v>56</v>
       </c>
@@ -13579,7 +13584,7 @@
         <v>43144</v>
       </c>
     </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="64" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B64" s="17">
         <v>62</v>
       </c>
@@ -13621,7 +13626,7 @@
       </c>
       <c r="I65" s="20"/>
     </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="66" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B66" s="17">
         <v>64</v>
       </c>
@@ -13637,7 +13642,7 @@
       </c>
       <c r="I66" s="22"/>
     </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="67" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B67" s="15">
         <v>65</v>
       </c>
@@ -13657,11 +13662,13 @@
         <v>104</v>
       </c>
       <c r="H67" s="18">
-        <v>0</v>
-      </c>
-      <c r="I67" s="20"/>
+        <v>100</v>
+      </c>
+      <c r="I67" s="28">
+        <v>43148</v>
+      </c>
     </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="68" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B68" s="17">
         <v>66</v>
       </c>
@@ -13679,11 +13686,13 @@
         <v>104</v>
       </c>
       <c r="H68" s="18">
-        <v>0</v>
-      </c>
-      <c r="I68" s="22"/>
+        <v>100</v>
+      </c>
+      <c r="I68" s="29">
+        <v>43147</v>
+      </c>
     </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="69" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B69" s="15">
         <v>67</v>
       </c>
@@ -13699,7 +13708,7 @@
       </c>
       <c r="I69" s="20"/>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="70" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B70" s="17">
         <v>68</v>
       </c>
@@ -13715,7 +13724,7 @@
       </c>
       <c r="I70" s="22"/>
     </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="71" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B71" s="15">
         <v>69</v>
       </c>
@@ -13731,7 +13740,7 @@
       </c>
       <c r="I71" s="20"/>
     </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="72" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B72" s="17">
         <v>70</v>
       </c>
@@ -13747,7 +13756,7 @@
       </c>
       <c r="I72" s="22"/>
     </row>
-    <row r="73" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="73" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B73" s="15">
         <v>71</v>
       </c>
@@ -13763,7 +13772,7 @@
       </c>
       <c r="I73" s="20"/>
     </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="74" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B74" s="17">
         <v>72</v>
       </c>
@@ -13779,7 +13788,7 @@
       </c>
       <c r="I74" s="22"/>
     </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="75" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B75" s="15">
         <v>73</v>
       </c>
@@ -13795,7 +13804,7 @@
       </c>
       <c r="I75" s="20"/>
     </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="76" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B76" s="17">
         <v>74</v>
       </c>
@@ -13811,7 +13820,7 @@
       </c>
       <c r="I76" s="22"/>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="77" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B77" s="15">
         <v>75</v>
       </c>
@@ -13827,7 +13836,7 @@
       </c>
       <c r="I77" s="20"/>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="78" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B78" s="17">
         <v>76</v>
       </c>
@@ -13843,7 +13852,7 @@
       </c>
       <c r="I78" s="22"/>
     </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="79" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B79" s="15">
         <v>77</v>
       </c>
@@ -13859,7 +13868,7 @@
       </c>
       <c r="I79" s="20"/>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="80" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B80" s="17">
         <v>78</v>
       </c>
@@ -13875,7 +13884,7 @@
       </c>
       <c r="I80" s="22"/>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="81" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B81" s="15">
         <v>79</v>
       </c>
@@ -13891,7 +13900,7 @@
       </c>
       <c r="I81" s="20"/>
     </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="82" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B82" s="17">
         <v>80</v>
       </c>
@@ -13907,7 +13916,7 @@
       </c>
       <c r="I82" s="22"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="83" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B83" s="15">
         <v>81</v>
       </c>
@@ -13923,7 +13932,7 @@
       </c>
       <c r="I83" s="20"/>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="84" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B84" s="17">
         <v>82</v>
       </c>
@@ -13939,7 +13948,7 @@
       </c>
       <c r="I84" s="22"/>
     </row>
-    <row r="85" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="85" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B85" s="15">
         <v>83</v>
       </c>
@@ -13955,7 +13964,7 @@
       </c>
       <c r="I85" s="20"/>
     </row>
-    <row r="86" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="86" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B86" s="17">
         <v>84</v>
       </c>
@@ -13971,7 +13980,7 @@
       </c>
       <c r="I86" s="22"/>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="87" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B87" s="15">
         <v>85</v>
       </c>
@@ -13987,7 +13996,7 @@
       </c>
       <c r="I87" s="20"/>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="88" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B88" s="17">
         <v>86</v>
       </c>
@@ -14003,7 +14012,7 @@
       </c>
       <c r="I88" s="22"/>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="89" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B89" s="15">
         <v>87</v>
       </c>
@@ -14019,7 +14028,7 @@
       </c>
       <c r="I89" s="20"/>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="90" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B90" s="17">
         <v>88</v>
       </c>
@@ -14035,7 +14044,7 @@
       </c>
       <c r="I90" s="22"/>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="91" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B91" s="15">
         <v>89</v>
       </c>
@@ -14051,7 +14060,7 @@
       </c>
       <c r="I91" s="20"/>
     </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="92" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B92" s="17">
         <v>90</v>
       </c>
@@ -14067,7 +14076,7 @@
       </c>
       <c r="I92" s="22"/>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="93" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B93" s="15">
         <v>91</v>
       </c>
@@ -14083,7 +14092,7 @@
       </c>
       <c r="I93" s="20"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="94" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B94" s="17">
         <v>92</v>
       </c>
@@ -14099,7 +14108,7 @@
       </c>
       <c r="I94" s="22"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="95" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B95" s="15">
         <v>93</v>
       </c>
@@ -14115,7 +14124,7 @@
       </c>
       <c r="I95" s="20"/>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="96" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B96" s="17">
         <v>94</v>
       </c>
@@ -14131,7 +14140,7 @@
       </c>
       <c r="I96" s="22"/>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="97" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B97" s="15">
         <v>95</v>
       </c>
@@ -14147,7 +14156,7 @@
       </c>
       <c r="I97" s="20"/>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="98" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B98" s="17">
         <v>96</v>
       </c>
@@ -14163,7 +14172,7 @@
       </c>
       <c r="I98" s="22"/>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="99" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B99" s="17">
         <v>97</v>
       </c>
@@ -14179,7 +14188,7 @@
       </c>
       <c r="I99" s="20"/>
     </row>
-    <row r="100" spans="2:9" x14ac:dyDescent="0.4">
+    <row r="100" spans="2:9" hidden="1" x14ac:dyDescent="0.4">
       <c r="B100" s="17">
         <v>98</v>
       </c>
@@ -14195,7 +14204,7 @@
       </c>
       <c r="I100" s="22"/>
     </row>
-    <row r="101" spans="2:9" ht="19.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="2:9" ht="19.5" hidden="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B101" s="16">
         <v>99</v>
       </c>
@@ -14212,7 +14221,13 @@
       <c r="I101" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:I101"/>
+  <autoFilter ref="B2:I101">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="A"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F57">
     <cfRule type="containsText" dxfId="1420" priority="1439" operator="containsText" text="C">
